--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="143">
   <si>
     <t>Requisito</t>
   </si>
@@ -226,15 +226,9 @@
     <t>DashBoardActivity</t>
   </si>
   <si>
-    <t>RecuperoPasswordActivity</t>
-  </si>
-  <si>
     <t>PunteggiActivity</t>
   </si>
   <si>
-    <t>DatiPersonaliActivity</t>
-  </si>
-  <si>
     <t>DomandaActivity</t>
   </si>
   <si>
@@ -406,7 +400,52 @@
     <t>Parser</t>
   </si>
   <si>
-    <t>x</t>
+    <t>DashboardLayout</t>
+  </si>
+  <si>
+    <t>DatiActivity</t>
+  </si>
+  <si>
+    <t>DatiTask</t>
+  </si>
+  <si>
+    <t>DomandaTask</t>
+  </si>
+  <si>
+    <t>LoginTask</t>
+  </si>
+  <si>
+    <t>PunteggiTask</t>
+  </si>
+  <si>
+    <t>UpdateTimeTask</t>
+  </si>
+  <si>
+    <t>BootReceiver</t>
+  </si>
+  <si>
+    <t>IntentIntegrator</t>
+  </si>
+  <si>
+    <t>IntentResult</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Dati</t>
+  </si>
+  <si>
+    <t>DomandaActivity.QuestTask</t>
+  </si>
+  <si>
+    <t>recupero</t>
+  </si>
+  <si>
+    <t>ROFB 9.1.1</t>
+  </si>
+  <si>
+    <t>comprende tutti i requisiti delle classi che va a creare</t>
   </si>
 </sst>
 </file>
@@ -455,12 +494,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -757,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -779,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -789,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -799,7 +844,7 @@
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -809,7 +854,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -819,7 +864,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -829,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -837,7 +882,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -851,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -861,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -871,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
@@ -881,7 +926,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
@@ -891,7 +936,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -901,7 +946,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -911,7 +956,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -919,7 +964,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -933,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -943,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -953,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -963,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -973,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -983,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
@@ -991,7 +1036,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
@@ -999,7 +1044,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
@@ -1009,7 +1054,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -1019,7 +1064,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -1027,7 +1072,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -1041,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -1051,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
@@ -1061,7 +1106,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
@@ -1071,7 +1116,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
@@ -1081,7 +1126,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
@@ -1091,7 +1136,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -1099,7 +1144,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -1113,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -1123,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -1133,7 +1178,7 @@
         <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -1143,7 +1188,7 @@
         <v>62</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -1153,7 +1198,7 @@
         <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -1163,7 +1208,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -1171,7 +1216,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -1185,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
@@ -1195,7 +1240,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
@@ -1205,7 +1250,7 @@
         <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -1215,7 +1260,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -1225,7 +1270,7 @@
         <v>61</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -1233,7 +1278,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -1247,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -1257,7 +1302,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -1267,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -1277,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
@@ -1287,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -1297,7 +1342,7 @@
         <v>66</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -1307,7 +1352,7 @@
         <v>62</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -1317,7 +1362,7 @@
         <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -1327,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -1335,7 +1380,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -1349,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
@@ -1359,7 +1404,7 @@
         <v>66</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -1369,7 +1414,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -1379,7 +1424,7 @@
         <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
@@ -1389,7 +1434,7 @@
         <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -1397,7 +1442,7 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
@@ -1405,13 +1450,13 @@
         <v>34</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
@@ -1419,7 +1464,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -1427,7 +1472,7 @@
         <v>66</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -1435,7 +1480,7 @@
         <v>62</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
@@ -1443,7 +1488,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -1451,12 +1496,12 @@
         <v>61</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="D69" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -1464,21 +1509,32 @@
         <v>34</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="D71" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
@@ -1486,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
@@ -1494,7 +1550,7 @@
         <v>37</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
@@ -1502,7 +1558,7 @@
         <v>38</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -1510,7 +1566,7 @@
         <v>39</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
@@ -1518,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
@@ -1526,15 +1582,15 @@
         <v>41</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
@@ -1542,7 +1598,7 @@
         <v>51</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
@@ -1550,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
@@ -1558,27 +1614,27 @@
         <v>50</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
@@ -1586,17 +1642,17 @@
         <v>52</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="D86" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
@@ -1605,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
@@ -1613,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
@@ -1621,12 +1677,12 @@
         <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="D90" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1637,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1652,508 +1708,541 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="C4" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="C5" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="C6" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="C7" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="D10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>77</v>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="C22" s="1" t="s">
-        <v>58</v>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="C27" s="1" t="s">
-        <v>66</v>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="C28" s="1" t="s">
-        <v>63</v>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="D33" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="D35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="C35" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
+      <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="C36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="C37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>15</v>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="C44" s="3" t="s">
-        <v>42</v>
+      <c r="C44" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="C46" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="C47" s="1" t="s">
-        <v>64</v>
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="C48" s="1" t="s">
-        <v>65</v>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="C54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="D51" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1">
+      <c r="D55" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="C53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="C54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="C55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="C56" s="3" t="s">
-        <v>37</v>
+      <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="C57" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="C58" s="3" t="s">
-        <v>39</v>
+      <c r="A58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="C59" s="3" t="s">
-        <v>40</v>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="C60" s="3" t="s">
-        <v>41</v>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
@@ -2161,7 +2250,7 @@
         <v>66</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -2169,7 +2258,7 @@
         <v>63</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
@@ -2177,7 +2266,7 @@
         <v>64</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
@@ -2185,15 +2274,15 @@
         <v>65</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -2201,12 +2290,12 @@
         <v>58</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="D67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -2214,315 +2303,784 @@
         <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="C69" s="3" t="s">
-        <v>8</v>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="C70" s="1" t="s">
-        <v>66</v>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="C71" s="1" t="s">
-        <v>63</v>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="C72" s="1" t="s">
-        <v>64</v>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="C73" s="1" t="s">
-        <v>65</v>
+      <c r="C73" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="C75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1">
+      <c r="C77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="C79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="D76" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
-      <c r="C78" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="C79" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="C80" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="C81" s="1" t="s">
-        <v>101</v>
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="C82" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D82" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="C84" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D84" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="C86" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="C87" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="C88" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D88" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C90" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="C91" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
-      <c r="C92" s="3" t="s">
-        <v>37</v>
+      <c r="C92" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
-      <c r="C93" s="3" t="s">
-        <v>38</v>
+      <c r="C93" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
-      <c r="C94" s="3" t="s">
-        <v>39</v>
+      <c r="C94" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
-      <c r="C95" s="3" t="s">
-        <v>40</v>
+      <c r="C95" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
-      <c r="C96" s="3" t="s">
-        <v>41</v>
+      <c r="C96" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="C97" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D99" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="C101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="C102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="C103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="C104" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="C105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="C106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="C107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="C108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="C109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="C110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="C111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="C112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="C113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="D114" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1">
+      <c r="C116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1">
+      <c r="C117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1">
+      <c r="C118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1">
+      <c r="C119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1">
+      <c r="C120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1">
+      <c r="C121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1">
+      <c r="C122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1">
+      <c r="D123" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1">
+      <c r="D125" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1">
+      <c r="C127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1">
+      <c r="D128" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="C130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1">
+      <c r="D131" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1">
+      <c r="C133" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1">
+      <c r="C134" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1">
+      <c r="C135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1">
+      <c r="C136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1">
+      <c r="D137" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1">
+      <c r="D139" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="C141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1">
+      <c r="C142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1">
+      <c r="D143" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="C145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="C146" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1">
+      <c r="C147" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="C148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="C149" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1">
+      <c r="C150" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1">
+      <c r="C151" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="C152" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="C153" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="D154" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="C156" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
-      <c r="D101" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
-      <c r="D103" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="C112" s="3"/>
+      <c r="D156" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="D157" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="D159" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" ht="15" customHeight="1">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" ht="15" customHeight="1">
+      <c r="C168" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D205" sqref="A202:D205"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2548,7 +3106,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -2557,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -2565,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -2573,7 +3131,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -2581,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
@@ -2589,7 +3147,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -2598,7 +3156,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
@@ -2606,7 +3164,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -2614,15 +3172,15 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -2630,42 +3188,42 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
@@ -2673,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -2681,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -2689,15 +3247,15 @@
         <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -2705,69 +3263,69 @@
         <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -2775,7 +3333,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -2783,7 +3341,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
@@ -2791,26 +3349,26 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
@@ -2818,7 +3376,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -2826,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -2834,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -2842,7 +3400,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -2850,7 +3408,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -2858,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -2866,7 +3424,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -2874,7 +3432,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -2882,7 +3440,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -2890,27 +3448,27 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="C42" s="3"/>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -2918,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -2926,7 +3484,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -2934,7 +3492,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -2942,27 +3500,27 @@
         <v>50</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="C48" s="3"/>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -2970,26 +3528,26 @@
         <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -2997,26 +3555,26 @@
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="D54" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -3024,7 +3582,7 @@
         <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -3032,7 +3590,7 @@
         <v>47</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
@@ -3040,7 +3598,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -3048,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -3056,7 +3614,7 @@
         <v>42</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
@@ -3064,7 +3622,7 @@
         <v>44</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -3072,26 +3630,26 @@
         <v>45</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="D63" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -3099,7 +3657,7 @@
         <v>47</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -3107,7 +3665,7 @@
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
@@ -3115,26 +3673,26 @@
         <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="D68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -3142,26 +3700,26 @@
         <v>53</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="D71" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
@@ -3169,26 +3727,26 @@
         <v>52</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="D74" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -3196,7 +3754,7 @@
         <v>54</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
@@ -3204,26 +3762,26 @@
         <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="D78" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
@@ -3231,7 +3789,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15" customHeight="1">
@@ -3239,7 +3797,7 @@
         <v>19</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15" customHeight="1">
@@ -3247,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15" customHeight="1">
@@ -3255,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15" customHeight="1">
@@ -3263,7 +3821,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15" customHeight="1">
@@ -3271,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15" customHeight="1">
@@ -3279,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15" customHeight="1">
@@ -3287,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15" customHeight="1">
@@ -3295,7 +3853,7 @@
         <v>35</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15" customHeight="1">
@@ -3303,7 +3861,7 @@
         <v>36</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15" customHeight="1">
@@ -3311,7 +3869,7 @@
         <v>37</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15" customHeight="1">
@@ -3319,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15" customHeight="1">
@@ -3327,7 +3885,7 @@
         <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15" customHeight="1">
@@ -3335,7 +3893,7 @@
         <v>40</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15" customHeight="1">
@@ -3343,7 +3901,7 @@
         <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15" customHeight="1">
@@ -3351,7 +3909,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15" customHeight="1">
@@ -3359,7 +3917,7 @@
         <v>46</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15" customHeight="1">
@@ -3367,7 +3925,7 @@
         <v>47</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15" customHeight="1">
@@ -3375,7 +3933,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15" customHeight="1">
@@ -3383,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15" customHeight="1">
@@ -3391,7 +3949,7 @@
         <v>42</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15" customHeight="1">
@@ -3399,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15" customHeight="1">
@@ -3407,7 +3965,7 @@
         <v>53</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15" customHeight="1">
@@ -3415,7 +3973,7 @@
         <v>24</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15" customHeight="1">
@@ -3423,7 +3981,7 @@
         <v>44</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15" customHeight="1">
@@ -3431,7 +3989,7 @@
         <v>45</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15" customHeight="1">
@@ -3439,7 +3997,7 @@
         <v>26</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15" customHeight="1">
@@ -3447,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15" customHeight="1">
@@ -3455,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15" customHeight="1">
@@ -3463,7 +4021,7 @@
         <v>52</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15" customHeight="1">
@@ -3471,7 +4029,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15" customHeight="1">
@@ -3479,7 +4037,7 @@
         <v>29</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15" customHeight="1">
@@ -3487,7 +4045,7 @@
         <v>51</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
@@ -3495,7 +4053,7 @@
         <v>30</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
@@ -3503,7 +4061,7 @@
         <v>49</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
@@ -3511,26 +4069,26 @@
         <v>50</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="D116" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
@@ -3538,42 +4096,42 @@
         <v>66</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="D121" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
@@ -3581,42 +4139,42 @@
         <v>66</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="D126" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
@@ -3624,7 +4182,7 @@
         <v>24</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
@@ -3632,42 +4190,42 @@
         <v>25</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="D130" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
@@ -3675,7 +4233,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
@@ -3683,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
@@ -3691,7 +4249,7 @@
         <v>53</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
@@ -3699,7 +4257,7 @@
         <v>44</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
@@ -3707,7 +4265,7 @@
         <v>45</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
@@ -3715,7 +4273,7 @@
         <v>26</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
@@ -3723,26 +4281,26 @@
         <v>43</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="D141" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
@@ -3750,7 +4308,7 @@
         <v>36</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
@@ -3758,7 +4316,7 @@
         <v>37</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
@@ -3766,7 +4324,7 @@
         <v>38</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
@@ -3774,7 +4332,7 @@
         <v>39</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
@@ -3782,7 +4340,7 @@
         <v>40</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
@@ -3790,15 +4348,15 @@
         <v>41</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
@@ -3806,7 +4364,7 @@
         <v>51</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
@@ -3814,7 +4372,7 @@
         <v>49</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
@@ -3822,27 +4380,27 @@
         <v>50</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="C153" s="3"/>
       <c r="D153" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
@@ -3850,26 +4408,26 @@
         <v>52</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="D156" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
@@ -3877,26 +4435,26 @@
         <v>52</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="D159" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
@@ -3904,7 +4462,7 @@
         <v>24</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
@@ -3912,42 +4470,42 @@
         <v>25</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="D163" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="C165" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="C166" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
@@ -3955,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
@@ -3963,7 +4521,7 @@
         <v>42</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
@@ -3971,7 +4529,7 @@
         <v>53</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
@@ -3979,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
@@ -3987,7 +4545,7 @@
         <v>45</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
@@ -3995,7 +4553,7 @@
         <v>26</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
@@ -4003,26 +4561,26 @@
         <v>43</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="D174" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
@@ -4030,7 +4588,7 @@
         <v>36</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
@@ -4038,7 +4596,7 @@
         <v>37</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
@@ -4046,7 +4604,7 @@
         <v>38</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
@@ -4054,7 +4612,7 @@
         <v>39</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
@@ -4062,7 +4620,7 @@
         <v>40</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
@@ -4070,15 +4628,15 @@
         <v>41</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="C182" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
@@ -4086,7 +4644,7 @@
         <v>51</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
@@ -4094,7 +4652,7 @@
         <v>49</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
@@ -4102,27 +4660,27 @@
         <v>50</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="C186" s="3"/>
       <c r="D186" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
@@ -4130,26 +4688,26 @@
         <v>52</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="D189" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
@@ -4157,26 +4715,26 @@
         <v>52</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="D192" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
@@ -4184,7 +4742,7 @@
         <v>57</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
@@ -4192,60 +4750,60 @@
         <v>58</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="C196" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="C197" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
       <c r="D198" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="C200" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="D201" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>9</v>
@@ -4254,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
@@ -4262,7 +4820,7 @@
         <v>24</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
@@ -4270,26 +4828,26 @@
         <v>25</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="D205" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
@@ -4297,7 +4855,7 @@
         <v>54</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
@@ -4305,43 +4863,43 @@
         <v>19</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="C209" s="3"/>
       <c r="D209" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="C211" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="C212" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
@@ -4349,7 +4907,7 @@
         <v>15</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
@@ -4357,7 +4915,7 @@
         <v>42</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
@@ -4365,7 +4923,7 @@
         <v>53</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
@@ -4373,7 +4931,7 @@
         <v>44</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
@@ -4381,7 +4939,7 @@
         <v>45</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
@@ -4389,7 +4947,7 @@
         <v>26</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
@@ -4397,26 +4955,26 @@
         <v>43</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="D220" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
@@ -4424,7 +4982,7 @@
         <v>36</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
@@ -4432,7 +4990,7 @@
         <v>37</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
@@ -4440,7 +4998,7 @@
         <v>38</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
@@ -4448,7 +5006,7 @@
         <v>39</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
@@ -4456,7 +5014,7 @@
         <v>40</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
@@ -4464,15 +5022,15 @@
         <v>41</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="C228" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
@@ -4480,7 +5038,7 @@
         <v>51</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
@@ -4488,7 +5046,7 @@
         <v>49</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
@@ -4496,27 +5054,27 @@
         <v>50</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="C232" s="3"/>
       <c r="D232" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
@@ -4524,26 +5082,26 @@
         <v>52</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="D235" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
@@ -4551,7 +5109,7 @@
         <v>52</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
@@ -4559,62 +5117,77 @@
         <v>31</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="C239" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="D240" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1">
+      <c r="D242" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1">
+      <c r="A243" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
-      <c r="D242" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
-      <c r="D243" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+      <c r="C243" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1">
+      <c r="C244" s="6"/>
       <c r="D244" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
-      <c r="D245" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
-      <c r="A246" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1">
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1">
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1">
+      <c r="C247" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C243:C246"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="146">
   <si>
     <t>Requisito</t>
   </si>
@@ -118,12 +118,6 @@
     <t>RFOB 30</t>
   </si>
   <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
     <t>RFOB 8</t>
   </si>
   <si>
@@ -235,24 +229,12 @@
     <t>TimerNotifica</t>
   </si>
   <si>
-    <t>utils</t>
-  </si>
-  <si>
     <t>ConnectionUtils</t>
   </si>
   <si>
-    <t>condivisi</t>
-  </si>
-  <si>
     <t>RVOB 1.2</t>
   </si>
   <si>
-    <t>connection</t>
-  </si>
-  <si>
-    <t>controller</t>
-  </si>
-  <si>
     <t>GestioneLog</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t>GestioneDipendentiAA</t>
   </si>
   <si>
-    <t>access</t>
-  </si>
-  <si>
     <t>RFOB 14</t>
   </si>
   <si>
@@ -391,9 +370,6 @@
     <t>DataOra</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>Inizializzatore</t>
   </si>
   <si>
@@ -446,6 +422,39 @@
   </si>
   <si>
     <t>comprende tutti i requisiti delle classi che va a creare</t>
+  </si>
+  <si>
+    <t>DT.V</t>
+  </si>
+  <si>
+    <t>DT.L</t>
+  </si>
+  <si>
+    <t>DT.COND</t>
+  </si>
+  <si>
+    <t>MB.V</t>
+  </si>
+  <si>
+    <t>MB.U</t>
+  </si>
+  <si>
+    <t>MB.COND</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BK.CONN</t>
+  </si>
+  <si>
+    <t>BK.CONT</t>
+  </si>
+  <si>
+    <t>BK.A</t>
+  </si>
+  <si>
+    <t>BK.COND</t>
   </si>
 </sst>
 </file>
@@ -802,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -815,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -824,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -834,47 +843,47 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -882,12 +891,12 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -896,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -906,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -916,47 +925,47 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -964,12 +973,12 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -978,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -988,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -998,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -1008,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -1018,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -1028,43 +1037,43 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -1072,12 +1081,12 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1086,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -1096,47 +1105,47 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -1144,12 +1153,12 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>18</v>
@@ -1158,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -1168,47 +1177,47 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -1216,12 +1225,12 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
@@ -1230,47 +1239,47 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -1278,12 +1287,12 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -1292,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -1302,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -1312,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -1322,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
@@ -1332,47 +1341,47 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -1380,12 +1389,12 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>22</v>
@@ -1394,47 +1403,47 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -1442,217 +1451,217 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
+      <c r="A63" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="C64" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="C66" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="C68" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="D69" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>34</v>
+      <c r="A70" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="D71" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="C73" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="C74" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="C75" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="C76" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="C77" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="C80" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="C81" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="C82" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="D86" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
@@ -1661,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
@@ -1669,7 +1678,7 @@
         <v>24</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
@@ -1677,12 +1686,12 @@
         <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="D90" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1695,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1710,19 +1719,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -1730,21 +1739,21 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
@@ -1752,79 +1761,79 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
@@ -1832,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -1840,74 +1849,74 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -1915,224 +1924,224 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -2140,93 +2149,93 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="C53" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="C54" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="D55" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="D57" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -2234,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -2242,74 +2251,74 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="C64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="C66" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="D67" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
@@ -2317,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -2325,7 +2334,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
@@ -2333,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
@@ -2341,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
@@ -2349,224 +2358,224 @@
         <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="C77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="C79" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="D80" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="C82" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="C83" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="C84" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="C86" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="C87" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="C88" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="D89" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="C91" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="C92" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="C93" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="C94" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="C95" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="C96" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="C97" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="D98" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
@@ -2574,130 +2583,130 @@
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="C101" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="C102" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="C103" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="C104" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="C105" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="C106" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="C107" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="C108" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="C109" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="C110" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="C111" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="C112" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="C113" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="D114" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
@@ -2705,217 +2714,217 @@
         <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="C117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="C118" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="C121" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="C122" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="D123" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="D125" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="C127" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="D128" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="C130" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="D131" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="D137" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="D139" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
@@ -2923,157 +2932,157 @@
         <v>15</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="C142" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="D143" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="C145" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="C146" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="C147" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="C148" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="C150" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="C151" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="C152" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="C153" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="D154" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="C156" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="D157" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="D159" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="15" customHeight="1">
@@ -3084,6 +3093,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3091,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -3106,7 +3116,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -3115,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -3123,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -3131,7 +3141,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -3139,7 +3149,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
@@ -3147,7 +3157,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -3156,7 +3166,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
@@ -3164,66 +3174,66 @@
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
@@ -3231,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -3239,93 +3249,93 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="D22" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -3333,7 +3343,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -3341,7 +3351,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
@@ -3349,26 +3359,26 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="D30" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
@@ -3376,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -3384,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -3392,91 +3402,91 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="C42" s="3"/>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="C44" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -3484,121 +3494,121 @@
         <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="C48" s="3"/>
       <c r="D48" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="D54" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="C58" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -3606,58 +3616,58 @@
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="C60" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="C62" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="D63" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -3665,96 +3675,96 @@
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="C67" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="D68" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="D71" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="D74" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
@@ -3762,34 +3772,34 @@
         <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="D78" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="C80" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15" customHeight="1">
@@ -3797,7 +3807,7 @@
         <v>19</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15" customHeight="1">
@@ -3805,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15" customHeight="1">
@@ -3813,7 +3823,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15" customHeight="1">
@@ -3821,7 +3831,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15" customHeight="1">
@@ -3829,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15" customHeight="1">
@@ -3837,7 +3847,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15" customHeight="1">
@@ -3845,63 +3855,63 @@
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15" customHeight="1">
       <c r="C88" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15" customHeight="1">
       <c r="C89" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15" customHeight="1">
       <c r="C90" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15" customHeight="1">
       <c r="C91" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15" customHeight="1">
       <c r="C92" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15" customHeight="1">
       <c r="C93" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15" customHeight="1">
       <c r="C94" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15" customHeight="1">
@@ -3909,31 +3919,31 @@
         <v>14</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15" customHeight="1">
       <c r="C96" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15" customHeight="1">
       <c r="C97" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15" customHeight="1">
       <c r="C98" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15" customHeight="1">
@@ -3941,15 +3951,15 @@
         <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15" customHeight="1">
       <c r="C100" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15" customHeight="1">
@@ -3957,15 +3967,15 @@
         <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15" customHeight="1">
       <c r="C102" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15" customHeight="1">
@@ -3973,23 +3983,23 @@
         <v>24</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15" customHeight="1">
       <c r="C104" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15" customHeight="1">
       <c r="C105" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15" customHeight="1">
@@ -3997,15 +4007,15 @@
         <v>26</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15" customHeight="1">
       <c r="C107" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15" customHeight="1">
@@ -4013,15 +4023,15 @@
         <v>27</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15" customHeight="1">
       <c r="C109" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15" customHeight="1">
@@ -4029,7 +4039,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15" customHeight="1">
@@ -4037,15 +4047,15 @@
         <v>29</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15" customHeight="1">
       <c r="C112" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
@@ -4053,128 +4063,128 @@
         <v>30</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="C114" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="C115" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="D116" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="C118" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="D121" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="C123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="D126" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
@@ -4182,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
@@ -4190,42 +4200,42 @@
         <v>25</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="D130" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
@@ -4233,39 +4243,39 @@
         <v>15</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="C137" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="C138" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
@@ -4273,188 +4283,188 @@
         <v>26</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="C140" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="D141" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="C143" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="C144" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="C145" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="C146" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="C147" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="C148" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="C150" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="C151" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="C152" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="C153" s="3"/>
       <c r="D153" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="C155" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="D156" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="C158" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="D159" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
@@ -4462,7 +4472,7 @@
         <v>24</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
@@ -4470,42 +4480,42 @@
         <v>25</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="D163" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="C165" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="C166" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
@@ -4513,39 +4523,39 @@
         <v>15</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="C168" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="C169" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="C170" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="C171" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
@@ -4553,257 +4563,257 @@
         <v>26</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="C173" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="D174" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="C176" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="C177" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="C178" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="C179" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="C180" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="C181" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="C182" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="C183" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="C184" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="C185" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="C186" s="3"/>
       <c r="D186" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="C188" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="D189" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
       <c r="C191" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="D192" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="C194" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="C195" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="C196" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="C197" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
       <c r="D198" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="C200" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="D201" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>9</v>
@@ -4812,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
@@ -4820,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
@@ -4828,34 +4838,34 @@
         <v>25</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="D205" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="C207" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
@@ -4863,43 +4873,43 @@
         <v>19</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="C209" s="3"/>
       <c r="D209" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="C211" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="C212" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
@@ -4907,39 +4917,39 @@
         <v>15</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="C214" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="C215" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="C216" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
@@ -4947,169 +4957,169 @@
         <v>26</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="C219" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="D220" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="C222" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="C223" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="C224" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="C225" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="C226" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="C227" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="C228" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="C229" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="C230" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
       <c r="C231" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="C232" s="3"/>
       <c r="D232" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="C234" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="D235" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
       <c r="C237" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
@@ -5117,53 +5127,53 @@
         <v>31</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="C239" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="D240" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15" customHeight="1">
       <c r="D242" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -5172,7 +5182,7 @@
     <row r="244" spans="1:7" ht="15" customHeight="1">
       <c r="C244" s="6"/>
       <c r="D244" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1">

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="154">
   <si>
     <t>Requisito</t>
   </si>
@@ -421,9 +421,6 @@
     <t>ROFB 9.1.1</t>
   </si>
   <si>
-    <t>comprende tutti i requisiti delle classi che va a creare</t>
-  </si>
-  <si>
     <t>DT.V</t>
   </si>
   <si>
@@ -455,13 +452,40 @@
   </si>
   <si>
     <t>BK.COND</t>
+  </si>
+  <si>
+    <t>RQOB 2</t>
+  </si>
+  <si>
+    <t>RFOB 24</t>
+  </si>
+  <si>
+    <t>RFOB 20</t>
+  </si>
+  <si>
+    <t>ROFB 19</t>
+  </si>
+  <si>
+    <t>ROFB 19.2</t>
+  </si>
+  <si>
+    <t>ROFB 19.1</t>
+  </si>
+  <si>
+    <t>RFOB 18</t>
+  </si>
+  <si>
+    <t>RFD 2</t>
+  </si>
+  <si>
+    <t>RFD  2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -503,18 +520,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -811,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -824,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -896,7 +906,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -978,7 +988,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1086,7 +1096,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1158,7 +1168,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>18</v>
@@ -1230,7 +1240,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
@@ -1292,7 +1302,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -1394,7 +1404,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>22</v>
@@ -1456,7 +1466,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>93</v>
@@ -1515,7 +1525,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -1534,7 +1544,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>88</v>
@@ -1634,7 +1644,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>102</v>
@@ -1661,7 +1671,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
@@ -1704,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1719,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
@@ -1824,7 +1834,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>123</v>
@@ -1907,7 +1917,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>122</v>
@@ -2038,7 +2048,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>131</v>
@@ -2057,7 +2067,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>124</v>
@@ -2132,7 +2142,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>125</v>
@@ -2207,7 +2217,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>119</v>
@@ -2226,7 +2236,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>65</v>
@@ -2309,7 +2319,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
@@ -2416,7 +2426,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>67</v>
@@ -2491,7 +2501,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>120</v>
@@ -2566,7 +2576,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>68</v>
@@ -2697,7 +2707,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>69</v>
@@ -2772,7 +2782,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>126</v>
@@ -2791,7 +2801,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>127</v>
@@ -2818,7 +2828,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
@@ -2845,7 +2855,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>70</v>
@@ -2896,7 +2906,7 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>130</v>
@@ -2915,7 +2925,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>130</v>
@@ -2950,7 +2960,7 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>88</v>
@@ -3041,7 +3051,7 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>87</v>
@@ -3068,7 +3078,7 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>129</v>
@@ -3099,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -3111,242 +3121,234 @@
     <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="C2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="C2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15" customHeight="1">
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="15" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="15" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="15" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="15" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="15" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="15" customHeight="1">
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="15" customHeight="1">
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="15" customHeight="1">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="C9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="D13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="D25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="3:4" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
@@ -3354,729 +3356,740 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="15" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="15" customHeight="1">
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="15" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="15" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="15" customHeight="1">
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="15" customHeight="1">
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="15" customHeight="1">
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="15" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="15" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="15" customHeight="1">
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="15" customHeight="1">
+      <c r="C43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" ht="15" customHeight="1">
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="15" customHeight="1">
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" ht="15" customHeight="1">
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" ht="15" customHeight="1">
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" ht="15" customHeight="1">
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1">
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="C56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="15" customHeight="1">
+      <c r="C65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="3:6" ht="15" customHeight="1">
+      <c r="C66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="3:6" ht="15" customHeight="1">
+      <c r="C67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="3:6" ht="15" customHeight="1">
+      <c r="C68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="3:6" ht="15" customHeight="1">
+      <c r="C69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="3:6" ht="15" customHeight="1">
+      <c r="C70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="3:6" ht="15" customHeight="1">
+      <c r="C71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="3:6" ht="15" customHeight="1">
+      <c r="C72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="3:6" ht="15" customHeight="1">
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="3:6" ht="15" customHeight="1">
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="3:6" ht="15" customHeight="1">
+      <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="3:6" ht="15" customHeight="1">
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="3:6" ht="15" customHeight="1">
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="3:6" ht="15" customHeight="1">
+      <c r="C78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="3:6" ht="15" customHeight="1">
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="3:6" ht="15" customHeight="1">
+      <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1">
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1">
+      <c r="C82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1">
+      <c r="C83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1">
+      <c r="C84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1">
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1">
+      <c r="C86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1">
+      <c r="D87" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="C89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1">
+      <c r="D90" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1">
+      <c r="C93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1">
+      <c r="C94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1">
+      <c r="D95" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="C32" s="3" t="s">
+      <c r="D96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1">
+      <c r="C97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="C33" s="3" t="s">
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="C98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="C34" s="3" t="s">
+      <c r="D98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="C99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="C35" s="3" t="s">
+      <c r="D99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="C100" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="C36" s="3" t="s">
+      <c r="D100" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="C101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="C37" s="3" t="s">
+      <c r="D101" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="C38" s="3" t="s">
+      <c r="D102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="C103" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="C39" s="3" t="s">
+      <c r="D103" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="C104" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="C40" s="3" t="s">
+      <c r="D104" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="C105" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="C41" s="3" t="s">
+      <c r="D105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="C106" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="C42" s="3"/>
-      <c r="D42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="C107" s="3"/>
+      <c r="D107" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="C44" s="3" t="s">
+      <c r="D108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="C109" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="C45" s="3" t="s">
+      <c r="D109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="C110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="C46" s="3" t="s">
+      <c r="D110" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="C111" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="C47" s="3" t="s">
+      <c r="D111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="C112" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="C48" s="3"/>
-      <c r="D48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="D112" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="C113" s="3"/>
+      <c r="D113" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="C50" s="1" t="s">
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="C115" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="D51" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="D54" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="C56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="C58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="C59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="C60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="D63" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="C65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="C66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="C67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="D68" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="C70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="D71" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="C73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="D74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="C76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
-      <c r="D78" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="C80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" ht="15" customHeight="1">
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="15" customHeight="1">
-      <c r="C82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" ht="15" customHeight="1">
-      <c r="C83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" ht="15" customHeight="1">
-      <c r="C84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" ht="15" customHeight="1">
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" ht="15" customHeight="1">
-      <c r="C86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" ht="15" customHeight="1">
-      <c r="C87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" ht="15" customHeight="1">
-      <c r="C88" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" ht="15" customHeight="1">
-      <c r="C89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" ht="15" customHeight="1">
-      <c r="C90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" ht="15" customHeight="1">
-      <c r="C91" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" ht="15" customHeight="1">
-      <c r="C92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" ht="15" customHeight="1">
-      <c r="C93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" ht="15" customHeight="1">
-      <c r="C94" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" ht="15" customHeight="1">
-      <c r="C95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" ht="15" customHeight="1">
-      <c r="C96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" ht="15" customHeight="1">
-      <c r="C97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" ht="15" customHeight="1">
-      <c r="C99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" ht="15" customHeight="1">
-      <c r="C100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" ht="15" customHeight="1">
-      <c r="C101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" ht="15" customHeight="1">
-      <c r="C102" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" ht="15" customHeight="1">
-      <c r="C103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" ht="15" customHeight="1">
-      <c r="C104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" ht="15" customHeight="1">
-      <c r="C105" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" ht="15" customHeight="1">
-      <c r="C106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" ht="15" customHeight="1">
-      <c r="C107" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" ht="15" customHeight="1">
-      <c r="C108" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" ht="15" customHeight="1">
-      <c r="C109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" ht="15" customHeight="1">
-      <c r="C110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" ht="15" customHeight="1">
-      <c r="C111" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" ht="15" customHeight="1">
-      <c r="C112" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="C113" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
-      <c r="C114" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="C115" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>107</v>
@@ -4089,13 +4102,13 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>107</v>
@@ -4103,7 +4116,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="C118" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>107</v>
@@ -4111,34 +4124,34 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
-      <c r="C120" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D121" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>107</v>
@@ -4146,7 +4159,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="C123" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>107</v>
@@ -4154,7 +4167,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>107</v>
@@ -4162,26 +4175,23 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
+      <c r="C126" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D126" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>107</v>
@@ -4189,34 +4199,34 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="C128" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="C129" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D130" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>107</v>
@@ -4224,7 +4234,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>107</v>
@@ -4232,7 +4242,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>107</v>
@@ -4240,7 +4250,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>107</v>
@@ -4248,7 +4258,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>107</v>
@@ -4256,7 +4266,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>107</v>
@@ -4264,7 +4274,7 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="C137" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>107</v>
@@ -4272,90 +4282,96 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="C138" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="C139" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
-      <c r="C140" s="1" t="s">
-        <v>41</v>
+      <c r="A140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="C141" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D141" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>33</v>
+      <c r="C142" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="C143" s="3" t="s">
-        <v>34</v>
+      <c r="C143" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="C144" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D144" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="C145" s="3" t="s">
-        <v>36</v>
+      <c r="A145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="C146" s="3" t="s">
-        <v>37</v>
+      <c r="C146" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
-      <c r="C147" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
-      <c r="C148" s="3" t="s">
-        <v>39</v>
+      <c r="A148" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>107</v>
@@ -4363,51 +4379,50 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
-      <c r="C150" s="3" t="s">
-        <v>49</v>
+      <c r="C150" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
-      <c r="C151" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C152" s="3" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D153" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>107</v>
@@ -4415,26 +4430,23 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="C155" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="C156" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>107</v>
@@ -4442,306 +4454,287 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="C159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="C160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" ht="15" customHeight="1">
+      <c r="C161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" ht="15" customHeight="1">
+      <c r="C162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" ht="15" customHeight="1">
+      <c r="C163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" ht="15" customHeight="1">
+      <c r="C164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" ht="15" customHeight="1">
+      <c r="C165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" ht="15" customHeight="1">
+      <c r="C166" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" ht="15" customHeight="1">
+      <c r="C167" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" ht="15" customHeight="1">
+      <c r="C168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" ht="15" customHeight="1">
+      <c r="C169" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" ht="15" customHeight="1">
+      <c r="C170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" ht="15" customHeight="1">
+      <c r="C171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" ht="15" customHeight="1">
+      <c r="C172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" ht="15" customHeight="1">
+      <c r="C173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" ht="15" customHeight="1">
+      <c r="C174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" ht="15" customHeight="1">
+      <c r="C175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" ht="15" customHeight="1">
+      <c r="C176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" ht="15" customHeight="1">
+      <c r="C177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" ht="15" customHeight="1">
+      <c r="C178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" ht="15" customHeight="1">
+      <c r="C179" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" ht="15" customHeight="1">
+      <c r="C180" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" ht="15" customHeight="1">
+      <c r="C181" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" ht="15" customHeight="1">
+      <c r="C182" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" ht="15" customHeight="1">
+      <c r="C183" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" ht="15" customHeight="1">
+      <c r="C184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" ht="15" customHeight="1">
+      <c r="C185" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" ht="15" customHeight="1">
+      <c r="C186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" ht="15" customHeight="1">
+      <c r="C187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" ht="15" customHeight="1">
+      <c r="C188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" ht="15" customHeight="1">
+      <c r="C189" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
-      <c r="D159" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
-      <c r="C161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
-      <c r="C162" s="1" t="s">
+      <c r="D189" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" ht="15" customHeight="1">
+      <c r="C190" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
-      <c r="D163" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
-      <c r="A164" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
-      <c r="C165" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
-      <c r="C166" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
-      <c r="C167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
-      <c r="C168" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
-      <c r="C169" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
-      <c r="C170" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
-      <c r="C171" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
-      <c r="C172" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
-      <c r="C173" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
-      <c r="D174" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
-      <c r="A175" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
-      <c r="C176" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
-      <c r="C177" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
-      <c r="C178" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
-      <c r="C179" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
-      <c r="C180" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
-      <c r="C181" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
-      <c r="C182" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
-      <c r="C183" s="3" t="s">
+      <c r="D190" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" ht="15" customHeight="1">
+      <c r="C191" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" ht="15" customHeight="1">
+      <c r="C192" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
-      <c r="C184" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
-      <c r="C185" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
-      <c r="C186" s="3"/>
-      <c r="D186" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
-      <c r="C188" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
-      <c r="D189" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
-      <c r="A190" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
-      <c r="C191" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="D192" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
-      <c r="A193" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C193" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>107</v>
@@ -4749,7 +4742,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="C194" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>107</v>
@@ -4757,42 +4750,42 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="C195" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
-      <c r="C197" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D197" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
+      <c r="C198" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D198" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
-      <c r="A199" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>107</v>
@@ -4800,7 +4793,7 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="C200" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>107</v>
@@ -4813,13 +4806,13 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>107</v>
@@ -4827,7 +4820,7 @@
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="C203" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>107</v>
@@ -4835,70 +4828,69 @@
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="C204" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1">
+      <c r="C205" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1">
+      <c r="D206" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1">
+      <c r="C208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1">
+      <c r="C209" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
-      <c r="D205" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
-      <c r="A206" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
-      <c r="C207" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
-      <c r="C208" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
-      <c r="C209" s="3"/>
       <c r="D209" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
-      <c r="A210" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
-      <c r="C211" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>107</v>
@@ -4906,7 +4898,7 @@
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="C212" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>107</v>
@@ -4914,7 +4906,7 @@
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
       <c r="C213" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>107</v>
@@ -4922,7 +4914,7 @@
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="C214" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>107</v>
@@ -4930,7 +4922,7 @@
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="C215" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>107</v>
@@ -4938,7 +4930,7 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="C216" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>107</v>
@@ -4946,7 +4938,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>107</v>
@@ -4954,7 +4946,7 @@
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="C218" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>107</v>
@@ -4962,50 +4954,50 @@
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="C219" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1">
+      <c r="C220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1">
+      <c r="C221" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
-      <c r="D220" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
-      <c r="A221" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1">
+      <c r="C222" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1">
+      <c r="D223" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
-      <c r="C222" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
-      <c r="C223" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
-      <c r="C224" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>107</v>
@@ -5013,7 +5005,7 @@
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="C225" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>107</v>
@@ -5021,7 +5013,7 @@
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="C226" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>107</v>
@@ -5029,15 +5021,15 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="C227" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
-      <c r="C228" s="1" t="s">
-        <v>83</v>
+      <c r="C228" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>107</v>
@@ -5045,7 +5037,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="C229" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>107</v>
@@ -5053,59 +5045,56 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="C230" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1">
+      <c r="C231" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1">
+      <c r="C232" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1">
+      <c r="C233" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
-      <c r="C231" s="3" t="s">
+      <c r="D233" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1">
+      <c r="C234" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
-      <c r="C232" s="3"/>
-      <c r="D232" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
-      <c r="A233" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
-      <c r="C234" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D234" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
+      <c r="C235" s="3"/>
       <c r="D235" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>51</v>
@@ -5123,81 +5112,1285 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1">
+      <c r="A239" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1">
+      <c r="C240" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1">
+      <c r="D241" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1">
+      <c r="A242" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1">
+      <c r="C243" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1">
+      <c r="C244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1">
+      <c r="D245" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1">
+      <c r="A246" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1">
+      <c r="C247" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1">
+      <c r="C248" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1">
+      <c r="C249" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1">
+      <c r="C250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1">
+      <c r="C251" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1">
+      <c r="C252" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1">
+      <c r="C253" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1">
+      <c r="C254" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1">
+      <c r="C255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1">
+      <c r="C256" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1">
+      <c r="C257" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1">
+      <c r="D258" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1">
+      <c r="C260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1">
+      <c r="C261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1">
+      <c r="C262" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1">
+      <c r="C263" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" customHeight="1">
+      <c r="C264" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1">
+      <c r="C265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" customHeight="1">
+      <c r="C266" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" customHeight="1">
+      <c r="C267" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1">
+      <c r="C268" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1">
+      <c r="C269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1">
+      <c r="C270" s="3"/>
+      <c r="D270" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1">
+      <c r="A271" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1">
+      <c r="C272" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1">
+      <c r="D273" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1">
+      <c r="A274" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1">
+      <c r="C275" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1">
+      <c r="D276" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1">
+      <c r="A277" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1">
+      <c r="C278" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1">
+      <c r="C279" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1">
+      <c r="C280" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1">
+      <c r="C281" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1">
+      <c r="D282" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1">
+      <c r="A283" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1">
+      <c r="C284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1">
+      <c r="D285" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1">
+      <c r="A286" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1">
+      <c r="C287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1">
+      <c r="C288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1">
+      <c r="D289" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1">
+      <c r="A290" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1">
+      <c r="C291" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1">
+      <c r="C292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1">
+      <c r="C293" s="3"/>
+      <c r="D293" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1">
+      <c r="A294" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1">
+      <c r="C295" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1">
+      <c r="C296" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1">
+      <c r="C297" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1">
+      <c r="C298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1">
+      <c r="C299" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1">
+      <c r="C300" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" customHeight="1">
+      <c r="C301" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1">
+      <c r="C302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1">
+      <c r="C303" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1">
+      <c r="D304" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1">
+      <c r="A305" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1">
+      <c r="C306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1">
+      <c r="C307" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1">
+      <c r="C308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1">
+      <c r="C309" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1">
+      <c r="C310" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1">
+      <c r="C311" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1">
+      <c r="C312" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1">
+      <c r="C313" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1">
+      <c r="C314" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1">
+      <c r="C315" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1">
+      <c r="C316" s="3"/>
+      <c r="D316" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1">
+      <c r="A317" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1">
+      <c r="C318" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1">
+      <c r="D319" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1">
+      <c r="A320" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15" customHeight="1">
+      <c r="C321" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15" customHeight="1">
+      <c r="C322" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
-      <c r="C239" s="1" t="s">
+      <c r="D322" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="15" customHeight="1">
+      <c r="C323" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
-      <c r="D240" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1">
-      <c r="A241" s="1" t="s">
+      <c r="D323" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15" customHeight="1">
+      <c r="D324" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15" customHeight="1">
+      <c r="A325" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15" customHeight="1">
+      <c r="D326" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15" customHeight="1">
+      <c r="A327" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" ht="15" customHeight="1">
+      <c r="C328" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" ht="15" customHeight="1">
+      <c r="C329" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15" customHeight="1">
+      <c r="C330" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15" customHeight="1">
+      <c r="C331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" ht="15" customHeight="1">
+      <c r="C332" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" ht="15" customHeight="1">
+      <c r="C333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15" customHeight="1">
+      <c r="C334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15" customHeight="1">
+      <c r="C335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15" customHeight="1">
+      <c r="C336" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" ht="15" customHeight="1">
+      <c r="C337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" ht="15" customHeight="1">
+      <c r="C338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" ht="15" customHeight="1">
+      <c r="C339" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" ht="15" customHeight="1">
+      <c r="C340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" ht="15" customHeight="1">
+      <c r="C341" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" ht="15" customHeight="1">
+      <c r="C342" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" ht="15" customHeight="1">
+      <c r="C343" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" ht="15" customHeight="1">
+      <c r="C344" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" ht="15" customHeight="1">
+      <c r="C345" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" ht="15" customHeight="1">
+      <c r="C346" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" ht="15" customHeight="1">
+      <c r="C347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" ht="15" customHeight="1">
+      <c r="C348" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" ht="15" customHeight="1">
+      <c r="C349" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" ht="15" customHeight="1">
+      <c r="C350" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" ht="15" customHeight="1">
+      <c r="C351" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" ht="15" customHeight="1">
+      <c r="C352" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="353" spans="3:7" ht="15" customHeight="1">
+      <c r="C353" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G353" s="3"/>
+    </row>
+    <row r="354" spans="3:7" ht="15" customHeight="1">
+      <c r="C354" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="355" spans="3:7" ht="15" customHeight="1">
+      <c r="C355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="356" spans="3:7" ht="15" customHeight="1">
+      <c r="C356" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="357" spans="3:7" ht="15" customHeight="1">
+      <c r="C357" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="358" spans="3:7" ht="15" customHeight="1">
+      <c r="C358" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="359" spans="3:7" ht="15" customHeight="1">
+      <c r="C359" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="360" spans="3:7" ht="15" customHeight="1">
+      <c r="C360" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="361" spans="3:7" ht="15" customHeight="1">
+      <c r="C361" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="362" spans="3:7" ht="15" customHeight="1">
+      <c r="C362" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="363" spans="3:7" ht="15" customHeight="1">
+      <c r="C363" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="364" spans="3:7" ht="15" customHeight="1">
+      <c r="C364" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="365" spans="3:7" ht="15" customHeight="1">
+      <c r="C365" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="3:7" ht="15" customHeight="1">
+      <c r="C366" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="367" spans="3:7" ht="15" customHeight="1">
+      <c r="C367" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="368" spans="3:7" ht="15" customHeight="1">
+      <c r="C368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" ht="15" customHeight="1">
+      <c r="C369" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" ht="15" customHeight="1">
+      <c r="C370" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" ht="15" customHeight="1">
+      <c r="C371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" ht="15" customHeight="1">
+      <c r="C372" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" ht="15" customHeight="1">
+      <c r="C373" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" ht="15" customHeight="1">
+      <c r="C374" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" ht="15" customHeight="1">
+      <c r="C375" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" ht="15" customHeight="1">
+      <c r="C376" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" ht="15" customHeight="1">
+      <c r="C377" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" ht="15" customHeight="1">
+      <c r="C378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" ht="15" customHeight="1">
+      <c r="C379" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" ht="15" customHeight="1">
+      <c r="C380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" ht="15" customHeight="1">
+      <c r="C381" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" ht="15" customHeight="1">
+      <c r="C382" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" ht="15" customHeight="1">
+      <c r="C383" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" ht="15" customHeight="1">
+      <c r="C384" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1">
-      <c r="D242" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1">
-      <c r="A243" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1">
-      <c r="C244" s="6"/>
-      <c r="D244" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1">
-      <c r="C245" s="6"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1">
-      <c r="C246" s="6"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" customHeight="1">
-      <c r="C247" s="5"/>
+      <c r="D384" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" ht="15" customHeight="1">
+      <c r="C385" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" ht="15" customHeight="1">
+      <c r="C386" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" ht="15" customHeight="1">
+      <c r="C387" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" ht="15" customHeight="1">
+      <c r="C388" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4" ht="15" customHeight="1">
+      <c r="C389" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" ht="15" customHeight="1">
+      <c r="D390" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C243:C246"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="154">
   <si>
     <t>Requisito</t>
   </si>
@@ -421,9 +421,6 @@
     <t>ROFB 9.1.1</t>
   </si>
   <si>
-    <t>comprende tutti i requisiti delle classi che va a creare</t>
-  </si>
-  <si>
     <t>DT.V</t>
   </si>
   <si>
@@ -455,13 +452,40 @@
   </si>
   <si>
     <t>BK.COND</t>
+  </si>
+  <si>
+    <t>RQOB 2</t>
+  </si>
+  <si>
+    <t>RFOB 24</t>
+  </si>
+  <si>
+    <t>RFOB 20</t>
+  </si>
+  <si>
+    <t>ROFB 19</t>
+  </si>
+  <si>
+    <t>ROFB 19.2</t>
+  </si>
+  <si>
+    <t>ROFB 19.1</t>
+  </si>
+  <si>
+    <t>RFOB 18</t>
+  </si>
+  <si>
+    <t>RFD 2</t>
+  </si>
+  <si>
+    <t>RFD  2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -491,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -499,22 +516,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -811,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -824,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -896,7 +923,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -978,7 +1005,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1086,7 +1113,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1158,7 +1185,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>18</v>
@@ -1230,7 +1257,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
@@ -1292,7 +1319,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -1394,7 +1421,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>22</v>
@@ -1456,7 +1483,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>93</v>
@@ -1515,7 +1542,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -1534,7 +1561,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>88</v>
@@ -1634,7 +1661,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>102</v>
@@ -1661,7 +1688,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
@@ -1704,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="F1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1719,7 +1746,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
@@ -1730,10 +1757,10 @@
       <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1744,7 +1771,8 @@
       <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1755,7 +1783,8 @@
       <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1766,7 +1795,8 @@
       <c r="D4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1777,7 +1807,8 @@
       <c r="D5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1788,7 +1819,8 @@
       <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1799,7 +1831,8 @@
       <c r="D7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1810,7 +1843,8 @@
       <c r="D8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1818,13 +1852,14 @@
       <c r="D9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>123</v>
@@ -1907,7 +1942,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>122</v>
@@ -2038,7 +2073,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>131</v>
@@ -2057,7 +2092,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>124</v>
@@ -2132,7 +2167,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>125</v>
@@ -2207,7 +2242,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>119</v>
@@ -2226,7 +2261,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>65</v>
@@ -2309,7 +2344,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
@@ -2416,7 +2451,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>67</v>
@@ -2491,7 +2526,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>120</v>
@@ -2566,7 +2601,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>68</v>
@@ -2697,7 +2732,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>69</v>
@@ -2772,7 +2807,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>126</v>
@@ -2791,7 +2826,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>127</v>
@@ -2818,7 +2853,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
@@ -2845,7 +2880,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>70</v>
@@ -2896,7 +2931,7 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>130</v>
@@ -2915,7 +2950,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>130</v>
@@ -2950,7 +2985,7 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>88</v>
@@ -3041,7 +3076,7 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>87</v>
@@ -3068,7 +3103,7 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>129</v>
@@ -3099,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -3111,242 +3146,234 @@
     <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="C2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="C2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15" customHeight="1">
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="15" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="15" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="15" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="15" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="15" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="15" customHeight="1">
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="15" customHeight="1">
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="15" customHeight="1">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="C9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="D13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="D25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="3:4" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
@@ -3354,729 +3381,740 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="15" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="15" customHeight="1">
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="15" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="15" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="15" customHeight="1">
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="15" customHeight="1">
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="15" customHeight="1">
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="15" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="15" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="15" customHeight="1">
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="15" customHeight="1">
+      <c r="C43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" ht="15" customHeight="1">
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="15" customHeight="1">
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" ht="15" customHeight="1">
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" ht="15" customHeight="1">
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" ht="15" customHeight="1">
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1">
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="C56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="15" customHeight="1">
+      <c r="C65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="3:6" ht="15" customHeight="1">
+      <c r="C66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="3:6" ht="15" customHeight="1">
+      <c r="C67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="3:6" ht="15" customHeight="1">
+      <c r="C68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="3:6" ht="15" customHeight="1">
+      <c r="C69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="3:6" ht="15" customHeight="1">
+      <c r="C70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="3:6" ht="15" customHeight="1">
+      <c r="C71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="3:6" ht="15" customHeight="1">
+      <c r="C72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="3:6" ht="15" customHeight="1">
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="3:6" ht="15" customHeight="1">
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="3:6" ht="15" customHeight="1">
+      <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="3:6" ht="15" customHeight="1">
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="3:6" ht="15" customHeight="1">
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="3:6" ht="15" customHeight="1">
+      <c r="C78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="3:6" ht="15" customHeight="1">
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="3:6" ht="15" customHeight="1">
+      <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1">
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1">
+      <c r="C82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1">
+      <c r="C83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1">
+      <c r="C84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1">
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1">
+      <c r="C86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1">
+      <c r="D87" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="C89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1">
+      <c r="D90" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1">
+      <c r="C93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1">
+      <c r="C94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1">
+      <c r="D95" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="C32" s="3" t="s">
+      <c r="D96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1">
+      <c r="C97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="C33" s="3" t="s">
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="C98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="C34" s="3" t="s">
+      <c r="D98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="C99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="C35" s="3" t="s">
+      <c r="D99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="C100" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="C36" s="3" t="s">
+      <c r="D100" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="C101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="C37" s="3" t="s">
+      <c r="D101" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="C38" s="3" t="s">
+      <c r="D102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="C103" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="C39" s="3" t="s">
+      <c r="D103" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="C104" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="C40" s="3" t="s">
+      <c r="D104" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="C105" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="C41" s="3" t="s">
+      <c r="D105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="C106" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="C42" s="3"/>
-      <c r="D42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="C107" s="3"/>
+      <c r="D107" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="C44" s="3" t="s">
+      <c r="D108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="C109" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="C45" s="3" t="s">
+      <c r="D109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="C110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="C46" s="3" t="s">
+      <c r="D110" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="C111" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="C47" s="3" t="s">
+      <c r="D111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="C112" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="C48" s="3"/>
-      <c r="D48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="D112" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="C113" s="3"/>
+      <c r="D113" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="C50" s="1" t="s">
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="C115" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="D51" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="D54" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="C56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="C58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="C59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="C60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="D63" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="C65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="C66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="C67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="D68" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="C70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="D71" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="C73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="D74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="C76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
-      <c r="D78" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="C80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" ht="15" customHeight="1">
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="15" customHeight="1">
-      <c r="C82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" ht="15" customHeight="1">
-      <c r="C83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" ht="15" customHeight="1">
-      <c r="C84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" ht="15" customHeight="1">
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" ht="15" customHeight="1">
-      <c r="C86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" ht="15" customHeight="1">
-      <c r="C87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" ht="15" customHeight="1">
-      <c r="C88" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" ht="15" customHeight="1">
-      <c r="C89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" ht="15" customHeight="1">
-      <c r="C90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" ht="15" customHeight="1">
-      <c r="C91" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" ht="15" customHeight="1">
-      <c r="C92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" ht="15" customHeight="1">
-      <c r="C93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" ht="15" customHeight="1">
-      <c r="C94" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" ht="15" customHeight="1">
-      <c r="C95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" ht="15" customHeight="1">
-      <c r="C96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" ht="15" customHeight="1">
-      <c r="C97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" ht="15" customHeight="1">
-      <c r="C99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" ht="15" customHeight="1">
-      <c r="C100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" ht="15" customHeight="1">
-      <c r="C101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" ht="15" customHeight="1">
-      <c r="C102" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" ht="15" customHeight="1">
-      <c r="C103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" ht="15" customHeight="1">
-      <c r="C104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" ht="15" customHeight="1">
-      <c r="C105" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" ht="15" customHeight="1">
-      <c r="C106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" ht="15" customHeight="1">
-      <c r="C107" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" ht="15" customHeight="1">
-      <c r="C108" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" ht="15" customHeight="1">
-      <c r="C109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" ht="15" customHeight="1">
-      <c r="C110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" ht="15" customHeight="1">
-      <c r="C111" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" ht="15" customHeight="1">
-      <c r="C112" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="C113" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
-      <c r="C114" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="C115" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>107</v>
@@ -4089,13 +4127,13 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>107</v>
@@ -4103,7 +4141,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="C118" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>107</v>
@@ -4111,34 +4149,34 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
-      <c r="C120" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D121" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>107</v>
@@ -4146,7 +4184,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="C123" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>107</v>
@@ -4154,7 +4192,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>107</v>
@@ -4162,26 +4200,23 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
+      <c r="C126" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D126" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>107</v>
@@ -4189,34 +4224,34 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="C128" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="C129" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D130" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>107</v>
@@ -4224,7 +4259,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>107</v>
@@ -4232,7 +4267,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>107</v>
@@ -4240,7 +4275,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>107</v>
@@ -4248,7 +4283,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>107</v>
@@ -4256,7 +4291,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>107</v>
@@ -4264,7 +4299,7 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="C137" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>107</v>
@@ -4272,90 +4307,96 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="C138" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="C139" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
-      <c r="C140" s="1" t="s">
-        <v>41</v>
+      <c r="A140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="C141" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D141" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>33</v>
+      <c r="C142" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="C143" s="3" t="s">
-        <v>34</v>
+      <c r="C143" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="C144" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D144" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="C145" s="3" t="s">
-        <v>36</v>
+      <c r="A145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="C146" s="3" t="s">
-        <v>37</v>
+      <c r="C146" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
-      <c r="C147" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
-      <c r="C148" s="3" t="s">
-        <v>39</v>
+      <c r="A148" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>107</v>
@@ -4363,51 +4404,50 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
-      <c r="C150" s="3" t="s">
-        <v>49</v>
+      <c r="C150" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
-      <c r="C151" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C152" s="3" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D153" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>107</v>
@@ -4415,26 +4455,23 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="C155" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="C156" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>107</v>
@@ -4442,306 +4479,287 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="C159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="C160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" ht="15" customHeight="1">
+      <c r="C161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" ht="15" customHeight="1">
+      <c r="C162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" ht="15" customHeight="1">
+      <c r="C163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" ht="15" customHeight="1">
+      <c r="C164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" ht="15" customHeight="1">
+      <c r="C165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" ht="15" customHeight="1">
+      <c r="C166" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" ht="15" customHeight="1">
+      <c r="C167" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" ht="15" customHeight="1">
+      <c r="C168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" ht="15" customHeight="1">
+      <c r="C169" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" ht="15" customHeight="1">
+      <c r="C170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" ht="15" customHeight="1">
+      <c r="C171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" ht="15" customHeight="1">
+      <c r="C172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" ht="15" customHeight="1">
+      <c r="C173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" ht="15" customHeight="1">
+      <c r="C174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" ht="15" customHeight="1">
+      <c r="C175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" ht="15" customHeight="1">
+      <c r="C176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" ht="15" customHeight="1">
+      <c r="C177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" ht="15" customHeight="1">
+      <c r="C178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" ht="15" customHeight="1">
+      <c r="C179" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" ht="15" customHeight="1">
+      <c r="C180" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" ht="15" customHeight="1">
+      <c r="C181" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" ht="15" customHeight="1">
+      <c r="C182" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" ht="15" customHeight="1">
+      <c r="C183" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" ht="15" customHeight="1">
+      <c r="C184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" ht="15" customHeight="1">
+      <c r="C185" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" ht="15" customHeight="1">
+      <c r="C186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" ht="15" customHeight="1">
+      <c r="C187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" ht="15" customHeight="1">
+      <c r="C188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" ht="15" customHeight="1">
+      <c r="C189" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
-      <c r="D159" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
-      <c r="C161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
-      <c r="C162" s="1" t="s">
+      <c r="D189" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" ht="15" customHeight="1">
+      <c r="C190" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
-      <c r="D163" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
-      <c r="A164" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
-      <c r="C165" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
-      <c r="C166" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
-      <c r="C167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
-      <c r="C168" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
-      <c r="C169" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
-      <c r="C170" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
-      <c r="C171" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
-      <c r="C172" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
-      <c r="C173" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
-      <c r="D174" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
-      <c r="A175" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
-      <c r="C176" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
-      <c r="C177" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
-      <c r="C178" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
-      <c r="C179" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
-      <c r="C180" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
-      <c r="C181" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
-      <c r="C182" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
-      <c r="C183" s="3" t="s">
+      <c r="D190" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" ht="15" customHeight="1">
+      <c r="C191" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" ht="15" customHeight="1">
+      <c r="C192" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
-      <c r="C184" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
-      <c r="C185" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
-      <c r="C186" s="3"/>
-      <c r="D186" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
-      <c r="C188" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
-      <c r="D189" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
-      <c r="A190" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
-      <c r="C191" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="D192" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
-      <c r="A193" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C193" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>107</v>
@@ -4749,7 +4767,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="C194" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>107</v>
@@ -4757,42 +4775,42 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="C195" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
-      <c r="C197" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D197" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
+      <c r="C198" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D198" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
-      <c r="A199" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>107</v>
@@ -4800,7 +4818,7 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="C200" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>107</v>
@@ -4813,13 +4831,13 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>107</v>
@@ -4827,7 +4845,7 @@
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="C203" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>107</v>
@@ -4835,70 +4853,69 @@
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="C204" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1">
+      <c r="C205" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1">
+      <c r="D206" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1">
+      <c r="C208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1">
+      <c r="C209" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
-      <c r="D205" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
-      <c r="A206" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
-      <c r="C207" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
-      <c r="C208" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
-      <c r="C209" s="3"/>
       <c r="D209" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
-      <c r="A210" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
-      <c r="C211" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>107</v>
@@ -4906,7 +4923,7 @@
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="C212" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>107</v>
@@ -4914,7 +4931,7 @@
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
       <c r="C213" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>107</v>
@@ -4922,7 +4939,7 @@
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="C214" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>107</v>
@@ -4930,7 +4947,7 @@
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="C215" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>107</v>
@@ -4938,7 +4955,7 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="C216" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>107</v>
@@ -4946,7 +4963,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>107</v>
@@ -4954,7 +4971,7 @@
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="C218" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>107</v>
@@ -4962,50 +4979,50 @@
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="C219" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1">
+      <c r="C220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1">
+      <c r="C221" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
-      <c r="D220" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
-      <c r="A221" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1">
+      <c r="C222" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1">
+      <c r="D223" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
-      <c r="C222" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
-      <c r="C223" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
-      <c r="C224" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>107</v>
@@ -5013,7 +5030,7 @@
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="C225" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>107</v>
@@ -5021,7 +5038,7 @@
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="C226" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>107</v>
@@ -5029,15 +5046,15 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="C227" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
-      <c r="C228" s="1" t="s">
-        <v>83</v>
+      <c r="C228" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>107</v>
@@ -5045,7 +5062,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="C229" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>107</v>
@@ -5053,59 +5070,56 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="C230" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1">
+      <c r="C231" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1">
+      <c r="C232" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1">
+      <c r="C233" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
-      <c r="C231" s="3" t="s">
+      <c r="D233" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1">
+      <c r="C234" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
-      <c r="C232" s="3"/>
-      <c r="D232" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
-      <c r="A233" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
-      <c r="C234" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D234" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
+      <c r="C235" s="3"/>
       <c r="D235" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>51</v>
@@ -5123,81 +5137,1285 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1">
+      <c r="A239" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1">
+      <c r="C240" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1">
+      <c r="D241" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1">
+      <c r="A242" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1">
+      <c r="C243" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1">
+      <c r="C244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1">
+      <c r="D245" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1">
+      <c r="A246" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1">
+      <c r="C247" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1">
+      <c r="C248" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1">
+      <c r="C249" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1">
+      <c r="C250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1">
+      <c r="C251" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1">
+      <c r="C252" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1">
+      <c r="C253" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1">
+      <c r="C254" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1">
+      <c r="C255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1">
+      <c r="C256" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1">
+      <c r="C257" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1">
+      <c r="D258" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1">
+      <c r="C260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1">
+      <c r="C261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1">
+      <c r="C262" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1">
+      <c r="C263" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" customHeight="1">
+      <c r="C264" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1">
+      <c r="C265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" customHeight="1">
+      <c r="C266" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" customHeight="1">
+      <c r="C267" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1">
+      <c r="C268" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1">
+      <c r="C269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1">
+      <c r="C270" s="3"/>
+      <c r="D270" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1">
+      <c r="A271" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1">
+      <c r="C272" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1">
+      <c r="D273" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1">
+      <c r="A274" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1">
+      <c r="C275" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1">
+      <c r="D276" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1">
+      <c r="A277" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1">
+      <c r="C278" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1">
+      <c r="C279" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1">
+      <c r="C280" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1">
+      <c r="C281" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1">
+      <c r="D282" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1">
+      <c r="A283" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1">
+      <c r="C284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1">
+      <c r="D285" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1">
+      <c r="A286" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1">
+      <c r="C287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1">
+      <c r="C288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1">
+      <c r="D289" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1">
+      <c r="A290" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1">
+      <c r="C291" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1">
+      <c r="C292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1">
+      <c r="C293" s="3"/>
+      <c r="D293" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1">
+      <c r="A294" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1">
+      <c r="C295" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1">
+      <c r="C296" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1">
+      <c r="C297" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1">
+      <c r="C298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1">
+      <c r="C299" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1">
+      <c r="C300" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" customHeight="1">
+      <c r="C301" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1">
+      <c r="C302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1">
+      <c r="C303" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1">
+      <c r="D304" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1">
+      <c r="A305" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1">
+      <c r="C306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1">
+      <c r="C307" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1">
+      <c r="C308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1">
+      <c r="C309" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1">
+      <c r="C310" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1">
+      <c r="C311" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1">
+      <c r="C312" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1">
+      <c r="C313" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1">
+      <c r="C314" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1">
+      <c r="C315" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1">
+      <c r="C316" s="3"/>
+      <c r="D316" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1">
+      <c r="A317" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1">
+      <c r="C318" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1">
+      <c r="D319" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1">
+      <c r="A320" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15" customHeight="1">
+      <c r="C321" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15" customHeight="1">
+      <c r="C322" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
-      <c r="C239" s="1" t="s">
+      <c r="D322" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="15" customHeight="1">
+      <c r="C323" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
-      <c r="D240" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1">
-      <c r="A241" s="1" t="s">
+      <c r="D323" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15" customHeight="1">
+      <c r="D324" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15" customHeight="1">
+      <c r="A325" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15" customHeight="1">
+      <c r="D326" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15" customHeight="1">
+      <c r="A327" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" ht="15" customHeight="1">
+      <c r="C328" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" ht="15" customHeight="1">
+      <c r="C329" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15" customHeight="1">
+      <c r="C330" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15" customHeight="1">
+      <c r="C331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" ht="15" customHeight="1">
+      <c r="C332" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" ht="15" customHeight="1">
+      <c r="C333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15" customHeight="1">
+      <c r="C334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15" customHeight="1">
+      <c r="C335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15" customHeight="1">
+      <c r="C336" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" ht="15" customHeight="1">
+      <c r="C337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" ht="15" customHeight="1">
+      <c r="C338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" ht="15" customHeight="1">
+      <c r="C339" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" ht="15" customHeight="1">
+      <c r="C340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" ht="15" customHeight="1">
+      <c r="C341" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" ht="15" customHeight="1">
+      <c r="C342" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" ht="15" customHeight="1">
+      <c r="C343" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" ht="15" customHeight="1">
+      <c r="C344" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" ht="15" customHeight="1">
+      <c r="C345" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" ht="15" customHeight="1">
+      <c r="C346" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" ht="15" customHeight="1">
+      <c r="C347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" ht="15" customHeight="1">
+      <c r="C348" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" ht="15" customHeight="1">
+      <c r="C349" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" ht="15" customHeight="1">
+      <c r="C350" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" ht="15" customHeight="1">
+      <c r="C351" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" ht="15" customHeight="1">
+      <c r="C352" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="353" spans="3:7" ht="15" customHeight="1">
+      <c r="C353" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G353" s="3"/>
+    </row>
+    <row r="354" spans="3:7" ht="15" customHeight="1">
+      <c r="C354" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="355" spans="3:7" ht="15" customHeight="1">
+      <c r="C355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="356" spans="3:7" ht="15" customHeight="1">
+      <c r="C356" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="357" spans="3:7" ht="15" customHeight="1">
+      <c r="C357" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="358" spans="3:7" ht="15" customHeight="1">
+      <c r="C358" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="359" spans="3:7" ht="15" customHeight="1">
+      <c r="C359" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="360" spans="3:7" ht="15" customHeight="1">
+      <c r="C360" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="361" spans="3:7" ht="15" customHeight="1">
+      <c r="C361" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="362" spans="3:7" ht="15" customHeight="1">
+      <c r="C362" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="363" spans="3:7" ht="15" customHeight="1">
+      <c r="C363" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="364" spans="3:7" ht="15" customHeight="1">
+      <c r="C364" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="365" spans="3:7" ht="15" customHeight="1">
+      <c r="C365" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="3:7" ht="15" customHeight="1">
+      <c r="C366" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="367" spans="3:7" ht="15" customHeight="1">
+      <c r="C367" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="368" spans="3:7" ht="15" customHeight="1">
+      <c r="C368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" ht="15" customHeight="1">
+      <c r="C369" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" ht="15" customHeight="1">
+      <c r="C370" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" ht="15" customHeight="1">
+      <c r="C371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" ht="15" customHeight="1">
+      <c r="C372" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" ht="15" customHeight="1">
+      <c r="C373" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" ht="15" customHeight="1">
+      <c r="C374" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" ht="15" customHeight="1">
+      <c r="C375" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" ht="15" customHeight="1">
+      <c r="C376" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" ht="15" customHeight="1">
+      <c r="C377" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" ht="15" customHeight="1">
+      <c r="C378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" ht="15" customHeight="1">
+      <c r="C379" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" ht="15" customHeight="1">
+      <c r="C380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" ht="15" customHeight="1">
+      <c r="C381" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" ht="15" customHeight="1">
+      <c r="C382" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" ht="15" customHeight="1">
+      <c r="C383" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" ht="15" customHeight="1">
+      <c r="C384" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1">
-      <c r="D242" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1">
-      <c r="A243" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1">
-      <c r="C244" s="6"/>
-      <c r="D244" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1">
-      <c r="C245" s="6"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1">
-      <c r="C246" s="6"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" customHeight="1">
-      <c r="C247" s="5"/>
+      <c r="D384" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" ht="15" customHeight="1">
+      <c r="C385" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" ht="15" customHeight="1">
+      <c r="C386" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" ht="15" customHeight="1">
+      <c r="C387" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" ht="15" customHeight="1">
+      <c r="C388" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4" ht="15" customHeight="1">
+      <c r="C389" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" ht="15" customHeight="1">
+      <c r="D390" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C243:C246"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Formato Tabella" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -419,9 +418,6 @@
     <t>recupero</t>
   </si>
   <si>
-    <t>ROFB 9.1.1</t>
-  </si>
-  <si>
     <t>DT.V</t>
   </si>
   <si>
@@ -480,6 +476,9 @@
   </si>
   <si>
     <t>RFD  2.1</t>
+  </si>
+  <si>
+    <t>ROFB 9.1.2</t>
   </si>
 </sst>
 </file>
@@ -852,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -924,7 +923,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1006,7 +1005,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1114,7 +1113,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1186,7 +1185,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>18</v>
@@ -1258,7 +1257,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
@@ -1320,7 +1319,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -1422,7 +1421,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>22</v>
@@ -1484,7 +1483,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>93</v>
@@ -1543,7 +1542,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -1562,7 +1561,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>88</v>
@@ -1662,7 +1661,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>102</v>
@@ -1689,7 +1688,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
@@ -1732,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1747,7 +1746,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
@@ -1860,7 +1859,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>123</v>
@@ -1943,7 +1942,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>122</v>
@@ -2074,13 +2073,13 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>107</v>
@@ -2093,7 +2092,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>124</v>
@@ -2168,7 +2167,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>125</v>
@@ -2243,7 +2242,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>119</v>
@@ -2262,7 +2261,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>65</v>
@@ -2345,7 +2344,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
@@ -2452,7 +2451,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>67</v>
@@ -2527,7 +2526,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>120</v>
@@ -2602,7 +2601,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>68</v>
@@ -2733,7 +2732,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>69</v>
@@ -2808,7 +2807,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>126</v>
@@ -2827,7 +2826,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>127</v>
@@ -2841,7 +2840,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="C127" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>107</v>
@@ -2854,7 +2853,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
@@ -2868,7 +2867,7 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="C130" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>107</v>
@@ -2881,7 +2880,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>70</v>
@@ -2932,7 +2931,7 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>130</v>
@@ -2951,7 +2950,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>130</v>
@@ -2986,7 +2985,7 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>88</v>
@@ -3077,7 +3076,7 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>87</v>
@@ -3104,13 +3103,13 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>107</v>
@@ -3154,13 +3153,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>107</v>
@@ -3168,7 +3167,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="C2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>107</v>
@@ -3384,7 +3383,7 @@
     </row>
     <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>107</v>
@@ -3392,7 +3391,7 @@
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>107</v>
@@ -3400,7 +3399,7 @@
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>107</v>
@@ -3408,7 +3407,7 @@
     </row>
     <row r="32" spans="3:4" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>107</v>
@@ -3416,7 +3415,7 @@
     </row>
     <row r="33" spans="3:4" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>107</v>
@@ -3472,7 +3471,7 @@
     </row>
     <row r="40" spans="3:4" ht="15" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>107</v>
@@ -3589,13 +3588,13 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>107</v>
@@ -3603,7 +3602,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="C56" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>107</v>
@@ -3879,7 +3878,7 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>72</v>
@@ -3906,7 +3905,7 @@
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>74</v>
@@ -3949,7 +3948,7 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>76</v>
@@ -4049,7 +4048,7 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>77</v>
@@ -4101,7 +4100,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>78</v>
@@ -4128,7 +4127,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>79</v>
@@ -4150,7 +4149,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>107</v>
@@ -4163,7 +4162,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>80</v>
@@ -4238,7 +4237,7 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>81</v>
@@ -4260,7 +4259,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>107</v>
@@ -4268,7 +4267,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>107</v>
@@ -4276,7 +4275,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>107</v>
@@ -4284,7 +4283,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>107</v>
@@ -4292,7 +4291,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>107</v>
@@ -4321,13 +4320,13 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>107</v>
@@ -4335,7 +4334,7 @@
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="C141" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>107</v>
@@ -4364,7 +4363,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>110</v>
@@ -4391,7 +4390,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>91</v>
@@ -4426,13 +4425,13 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>107</v>
@@ -4440,7 +4439,7 @@
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="C153" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>107</v>
@@ -4648,7 +4647,7 @@
     </row>
     <row r="179" spans="3:4" ht="15" customHeight="1">
       <c r="C179" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>107</v>
@@ -4656,7 +4655,7 @@
     </row>
     <row r="180" spans="3:4" ht="15" customHeight="1">
       <c r="C180" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>107</v>
@@ -4664,7 +4663,7 @@
     </row>
     <row r="181" spans="3:4" ht="15" customHeight="1">
       <c r="C181" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>107</v>
@@ -4672,7 +4671,7 @@
     </row>
     <row r="182" spans="3:4" ht="15" customHeight="1">
       <c r="C182" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>107</v>
@@ -4680,7 +4679,7 @@
     </row>
     <row r="183" spans="3:4" ht="15" customHeight="1">
       <c r="C183" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>107</v>
@@ -4789,7 +4788,7 @@
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>95</v>
@@ -4832,7 +4831,7 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>97</v>
@@ -4875,7 +4874,7 @@
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>96</v>
@@ -4910,7 +4909,7 @@
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>98</v>
@@ -4964,7 +4963,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>107</v>
@@ -5004,7 +5003,7 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="C222" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>107</v>
@@ -5017,7 +5016,7 @@
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>99</v>
@@ -5117,7 +5116,7 @@
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>100</v>
@@ -5144,7 +5143,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>104</v>
@@ -5171,7 +5170,7 @@
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>115</v>
@@ -5206,7 +5205,7 @@
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>114</v>
@@ -5260,7 +5259,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="C252" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>107</v>
@@ -5300,7 +5299,7 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="C257" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>107</v>
@@ -5313,7 +5312,7 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>113</v>
@@ -5413,7 +5412,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>112</v>
@@ -5440,7 +5439,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>111</v>
@@ -5467,7 +5466,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>84</v>
@@ -5518,7 +5517,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>101</v>
@@ -5545,7 +5544,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>9</v>
@@ -5580,7 +5579,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>90</v>
@@ -5616,7 +5615,7 @@
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>89</v>
@@ -5707,7 +5706,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>88</v>
@@ -5807,7 +5806,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>102</v>
@@ -5834,7 +5833,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>105</v>
@@ -5877,7 +5876,7 @@
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>116</v>
@@ -5896,7 +5895,7 @@
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>117</v>
@@ -6164,7 +6163,7 @@
     </row>
     <row r="359" spans="3:7" ht="15" customHeight="1">
       <c r="C359" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>107</v>
@@ -6172,7 +6171,7 @@
     </row>
     <row r="360" spans="3:7" ht="15" customHeight="1">
       <c r="C360" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>107</v>
@@ -6180,7 +6179,7 @@
     </row>
     <row r="361" spans="3:7" ht="15" customHeight="1">
       <c r="C361" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>107</v>
@@ -6188,7 +6187,7 @@
     </row>
     <row r="362" spans="3:7" ht="15" customHeight="1">
       <c r="C362" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>107</v>
@@ -6196,7 +6195,7 @@
     </row>
     <row r="363" spans="3:7" ht="15" customHeight="1">
       <c r="C363" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>107</v>
@@ -6253,7 +6252,7 @@
     </row>
     <row r="370" spans="3:4" ht="15" customHeight="1">
       <c r="C370" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>107</v>
@@ -6365,7 +6364,7 @@
     </row>
     <row r="384" spans="3:4" ht="15" customHeight="1">
       <c r="C384" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>107</v>

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="154">
   <si>
     <t>Requisito</t>
   </si>
@@ -839,7 +839,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="D11" sqref="A3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1729,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2274,16 +2274,16 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="C59" s="1" t="s">
-        <v>4</v>
+      <c r="C59" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="C60" s="1" t="s">
-        <v>5</v>
+      <c r="C60" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>107</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>107</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="C62" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>107</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>107</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="C64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>107</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>107</v>
@@ -2331,42 +2331,42 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1">
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="C68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="D67" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="D69" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="C70" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>107</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>107</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>107</v>
@@ -2390,23 +2390,23 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="C75" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="C74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="C75" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>107</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>107</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="C77" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>107</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="C78" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>107</v>
@@ -2438,50 +2438,50 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="C79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1">
+      <c r="C81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="D80" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="A81" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
-      <c r="C82" s="3" t="s">
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="C84" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="C83" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
-      <c r="C84" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>107</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>107</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="C86" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>107</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="C87" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>107</v>
@@ -2513,50 +2513,50 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="C88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1">
+      <c r="C89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="C90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
-      <c r="D89" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
-      <c r="A90" s="1" t="s">
+      <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="D91" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
-      <c r="C91" s="3" t="s">
+      <c r="D92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1">
+      <c r="C93" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
-      <c r="C92" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
-      <c r="C93" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>107</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="C94" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>107</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="C95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>107</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="C96" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>107</v>
@@ -2588,42 +2588,42 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="C97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="C98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="C99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="D98" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="D99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="D100" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="C100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
-      <c r="C101" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>107</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="C102" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>107</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="C103" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>107</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="C104" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>107</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="C105" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>107</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="C106" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>107</v>
@@ -2671,23 +2671,23 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="C107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="C108" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="C109" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
-      <c r="C108" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
-      <c r="C109" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>107</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="C110" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>107</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="C111" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>107</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="C112" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>107</v>
@@ -2719,50 +2719,50 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="C113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="C114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="C115" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
-      <c r="D114" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="A115" s="1" t="s">
+      <c r="D115" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1">
+      <c r="D116" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1">
+      <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
-      <c r="C116" s="3" t="s">
+      <c r="D117" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1">
+      <c r="C118" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
-      <c r="C117" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
-      <c r="C118" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>107</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>107</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>107</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="C121" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>107</v>
@@ -2794,26 +2794,23 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="C122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1">
+      <c r="C123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1">
+      <c r="C124" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
-      <c r="D123" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
-      <c r="A124" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>107</v>
@@ -2829,115 +2826,115 @@
         <v>137</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1">
+      <c r="D127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="C127" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1">
+      <c r="C129" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
-      <c r="D128" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="A129" s="1" t="s">
+      <c r="D129" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="D130" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
-      <c r="C130" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1">
+      <c r="C132" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="D131" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
-      <c r="A132" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1">
+      <c r="D133" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1">
+      <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
-      <c r="C133" s="3" t="s">
+      <c r="D134" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1">
+      <c r="C135" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
-      <c r="C134" s="3" t="s">
+      <c r="D135" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1">
+      <c r="C136" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
-      <c r="C135" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1">
+      <c r="C137" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
-      <c r="C136" s="1" t="s">
+      <c r="D137" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1">
+      <c r="C138" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
-      <c r="D137" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>107</v>
@@ -2956,58 +2953,61 @@
         <v>130</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="D141" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1">
+      <c r="A142" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
-      <c r="C141" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1">
+      <c r="C143" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="C142" s="1" t="s">
+      <c r="D143" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1">
+      <c r="C144" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="D143" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="A144" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="D145" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="C145" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="C146" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>107</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="C147" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>107</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="C148" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>107</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>107</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="C150" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>107</v>
@@ -3047,69 +3047,66 @@
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="C151" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="C152" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="C153" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
-      <c r="C152" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="C154" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="C153" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="C155" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="D154" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="A155" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="D156" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
-      <c r="C156" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="C158" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="D157" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
-      <c r="A158" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>107</v>
@@ -3120,11 +3117,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="3:3" ht="15" customHeight="1">
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="3:3" ht="15" customHeight="1">
-      <c r="C168" s="3"/>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="A160" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" ht="15" customHeight="1">
+      <c r="D161" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" ht="15" customHeight="1">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:4" ht="15" customHeight="1">
+      <c r="C170" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="153">
   <si>
     <t>Requisito</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>DomandaActivity.QuestTask</t>
-  </si>
-  <si>
-    <t>recupero</t>
   </si>
   <si>
     <t>DT.V</t>
@@ -508,7 +505,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -516,32 +513,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -851,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -923,7 +903,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1005,7 +985,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1113,7 +1093,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1185,7 +1165,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>18</v>
@@ -1257,7 +1237,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
@@ -1319,7 +1299,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>22</v>
@@ -1483,7 +1463,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>93</v>
@@ -1542,7 +1522,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -1561,7 +1541,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>88</v>
@@ -1661,7 +1641,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>102</v>
@@ -1688,7 +1668,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
@@ -1729,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C60"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="A141:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1746,7 +1726,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
@@ -1757,12 +1737,8 @@
       <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="C2" s="3" t="s">
@@ -1771,10 +1747,8 @@
       <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
@@ -1783,10 +1757,8 @@
       <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
@@ -1795,10 +1767,8 @@
       <c r="D4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
@@ -1807,10 +1777,8 @@
       <c r="D5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
@@ -1819,10 +1787,8 @@
       <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
@@ -1831,10 +1797,8 @@
       <c r="D7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
@@ -1843,23 +1807,19 @@
       <c r="D8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="D9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>123</v>
@@ -1942,7 +1902,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>122</v>
@@ -2073,7 +2033,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>131</v>
@@ -2092,7 +2052,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>124</v>
@@ -2167,7 +2127,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>125</v>
@@ -2242,7 +2202,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>119</v>
@@ -2261,7 +2221,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>65</v>
@@ -2360,7 +2320,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>66</v>
@@ -2467,7 +2427,7 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>67</v>
@@ -2542,7 +2502,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>120</v>
@@ -2617,7 +2577,7 @@
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>68</v>
@@ -2748,7 +2708,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>69</v>
@@ -2823,7 +2783,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
@@ -2842,7 +2802,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>127</v>
@@ -2856,7 +2816,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="C129" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>107</v>
@@ -2869,7 +2829,7 @@
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>128</v>
@@ -2883,7 +2843,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>107</v>
@@ -2896,7 +2856,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>70</v>
@@ -2947,7 +2907,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>130</v>
@@ -2960,19 +2920,16 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="C141" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D141" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>107</v>
@@ -2980,34 +2937,34 @@
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="C143" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="C144" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D144" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D145" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C146" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>107</v>
@@ -3015,7 +2972,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="C147" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>107</v>
@@ -3023,7 +2980,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="C148" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>107</v>
@@ -3031,7 +2988,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>107</v>
@@ -3039,7 +2996,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="C150" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>107</v>
@@ -3047,7 +3004,7 @@
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="C151" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>107</v>
@@ -3055,15 +3012,15 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="C152" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="C153" s="3" t="s">
-        <v>39</v>
+      <c r="C153" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>107</v>
@@ -3071,76 +3028,68 @@
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="C154" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="C155" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D155" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
-      <c r="C158" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D158" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D159" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D160" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4" ht="15" customHeight="1">
-      <c r="D161" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="169" spans="3:4" ht="15" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" ht="15" customHeight="1">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" ht="15" customHeight="1">
       <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="3:4" ht="15" customHeight="1">
-      <c r="C170" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3152,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G390"/>
   <sheetViews>
-    <sheetView topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D390"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -3169,13 +3118,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>107</v>
@@ -3183,7 +3132,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>107</v>
@@ -3399,7 +3348,7 @@
     </row>
     <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>107</v>
@@ -3407,7 +3356,7 @@
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>107</v>
@@ -3415,7 +3364,7 @@
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>107</v>
@@ -3423,7 +3372,7 @@
     </row>
     <row r="32" spans="3:4" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>107</v>
@@ -3431,7 +3380,7 @@
     </row>
     <row r="33" spans="3:4" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>107</v>
@@ -3487,7 +3436,7 @@
     </row>
     <row r="40" spans="3:4" ht="15" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>107</v>
@@ -3604,13 +3553,13 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>107</v>
@@ -3618,7 +3567,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="C56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>107</v>
@@ -3894,7 +3843,7 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>72</v>
@@ -3921,7 +3870,7 @@
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>74</v>
@@ -3964,7 +3913,7 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>76</v>
@@ -4064,7 +4013,7 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>77</v>
@@ -4116,7 +4065,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>78</v>
@@ -4143,7 +4092,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>79</v>
@@ -4165,7 +4114,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>107</v>
@@ -4178,7 +4127,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>80</v>
@@ -4253,7 +4202,7 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>81</v>
@@ -4275,7 +4224,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>107</v>
@@ -4283,7 +4232,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>107</v>
@@ -4291,7 +4240,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>107</v>
@@ -4299,7 +4248,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>107</v>
@@ -4307,7 +4256,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>107</v>
@@ -4336,13 +4285,13 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>107</v>
@@ -4350,7 +4299,7 @@
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="C141" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>107</v>
@@ -4379,7 +4328,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>110</v>
@@ -4406,7 +4355,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>91</v>
@@ -4441,13 +4390,13 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>107</v>
@@ -4455,7 +4404,7 @@
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="C153" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>107</v>
@@ -4663,7 +4612,7 @@
     </row>
     <row r="179" spans="3:4" ht="15" customHeight="1">
       <c r="C179" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>107</v>
@@ -4671,7 +4620,7 @@
     </row>
     <row r="180" spans="3:4" ht="15" customHeight="1">
       <c r="C180" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>107</v>
@@ -4679,7 +4628,7 @@
     </row>
     <row r="181" spans="3:4" ht="15" customHeight="1">
       <c r="C181" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>107</v>
@@ -4687,7 +4636,7 @@
     </row>
     <row r="182" spans="3:4" ht="15" customHeight="1">
       <c r="C182" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>107</v>
@@ -4695,7 +4644,7 @@
     </row>
     <row r="183" spans="3:4" ht="15" customHeight="1">
       <c r="C183" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>107</v>
@@ -4804,7 +4753,7 @@
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>95</v>
@@ -4847,7 +4796,7 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>97</v>
@@ -4890,7 +4839,7 @@
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>96</v>
@@ -4925,7 +4874,7 @@
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>98</v>
@@ -4979,7 +4928,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>107</v>
@@ -5019,7 +4968,7 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="C222" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>107</v>
@@ -5032,7 +4981,7 @@
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>99</v>
@@ -5132,7 +5081,7 @@
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>100</v>
@@ -5159,7 +5108,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>104</v>
@@ -5186,7 +5135,7 @@
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>115</v>
@@ -5221,7 +5170,7 @@
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>114</v>
@@ -5275,7 +5224,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="C252" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>107</v>
@@ -5315,7 +5264,7 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="C257" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>107</v>
@@ -5328,7 +5277,7 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>113</v>
@@ -5428,7 +5377,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>112</v>
@@ -5455,7 +5404,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>111</v>
@@ -5482,7 +5431,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>84</v>
@@ -5533,7 +5482,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>101</v>
@@ -5560,7 +5509,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>9</v>
@@ -5595,7 +5544,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>90</v>
@@ -5631,7 +5580,7 @@
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>89</v>
@@ -5722,7 +5671,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>88</v>
@@ -5822,7 +5771,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>102</v>
@@ -5849,7 +5798,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>105</v>
@@ -5892,7 +5841,7 @@
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>116</v>
@@ -5911,7 +5860,7 @@
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>117</v>
@@ -6179,7 +6128,7 @@
     </row>
     <row r="359" spans="3:7" ht="15" customHeight="1">
       <c r="C359" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>107</v>
@@ -6187,7 +6136,7 @@
     </row>
     <row r="360" spans="3:7" ht="15" customHeight="1">
       <c r="C360" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>107</v>
@@ -6195,7 +6144,7 @@
     </row>
     <row r="361" spans="3:7" ht="15" customHeight="1">
       <c r="C361" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>107</v>
@@ -6203,7 +6152,7 @@
     </row>
     <row r="362" spans="3:7" ht="15" customHeight="1">
       <c r="C362" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>107</v>
@@ -6211,7 +6160,7 @@
     </row>
     <row r="363" spans="3:7" ht="15" customHeight="1">
       <c r="C363" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>107</v>
@@ -6268,7 +6217,7 @@
     </row>
     <row r="370" spans="3:4" ht="15" customHeight="1">
       <c r="C370" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>107</v>
@@ -6380,7 +6329,7 @@
     </row>
     <row r="384" spans="3:4" ht="15" customHeight="1">
       <c r="C384" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>107</v>

--- a/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Definizione di prodotto/Tracciamento Classi-requisiti.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
-    <sheet name="Mobile" sheetId="4" r:id="rId2"/>
-    <sheet name="Backend" sheetId="5" r:id="rId3"/>
+    <sheet name="Backend" sheetId="5" r:id="rId2"/>
+    <sheet name="Mobile" sheetId="4" r:id="rId3"/>
     <sheet name="Formato Tabella" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="156">
   <si>
     <t>Requisito</t>
   </si>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>ROFB 9.1.2</t>
+  </si>
+  <si>
+    <t>RFOB 13</t>
+  </si>
+  <si>
+    <t>RFOB 19.2.1</t>
+  </si>
+  <si>
+    <t>RFOB 19.2.2</t>
   </si>
 </sst>
 </file>
@@ -816,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="A3:D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -856,8 +865,8 @@
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>107</v>
@@ -867,7 +876,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>107</v>
@@ -877,7 +886,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>107</v>
@@ -887,7 +896,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>107</v>
@@ -896,30 +905,30 @@
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>107</v>
@@ -929,7 +938,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>107</v>
@@ -939,7 +948,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>107</v>
@@ -949,7 +958,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>107</v>
@@ -959,7 +968,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>107</v>
@@ -969,7 +978,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>107</v>
@@ -978,30 +987,30 @@
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>107</v>
@@ -1011,7 +1020,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>107</v>
@@ -1021,7 +1030,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>107</v>
@@ -1031,7 +1040,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>107</v>
@@ -1041,15 +1050,17 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="C22" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>107</v>
@@ -1057,17 +1068,15 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="C24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>107</v>
@@ -1077,7 +1086,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>107</v>
@@ -1086,30 +1095,30 @@
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>107</v>
@@ -1119,7 +1128,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>107</v>
@@ -1129,7 +1138,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>107</v>
@@ -1139,7 +1148,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>107</v>
@@ -1149,7 +1158,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>107</v>
@@ -1158,30 +1167,30 @@
     <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>107</v>
@@ -1191,7 +1200,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>107</v>
@@ -1201,7 +1210,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>107</v>
@@ -1211,7 +1220,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>107</v>
@@ -1221,7 +1230,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>107</v>
@@ -1230,30 +1239,30 @@
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>107</v>
@@ -1263,7 +1272,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>107</v>
@@ -1273,7 +1282,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>107</v>
@@ -1283,7 +1292,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>107</v>
@@ -1292,30 +1301,30 @@
     <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>107</v>
@@ -1325,7 +1334,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>107</v>
@@ -1335,7 +1344,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>107</v>
@@ -1345,7 +1354,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>107</v>
@@ -1355,7 +1364,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>107</v>
@@ -1365,7 +1374,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>107</v>
@@ -1375,7 +1384,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>107</v>
@@ -1385,7 +1394,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>107</v>
@@ -1394,30 +1403,30 @@
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>107</v>
@@ -1427,7 +1436,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>107</v>
@@ -1437,7 +1446,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>107</v>
@@ -1447,7 +1456,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>107</v>
@@ -1456,36 +1465,38 @@
     <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1">
+      <c r="C65" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="C65" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>107</v>
@@ -1493,7 +1504,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>107</v>
@@ -1501,7 +1512,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="C67" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>107</v>
@@ -1509,53 +1520,53 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="C68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="C69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="D69" s="1" t="s">
-        <v>108</v>
+      <c r="D69" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="A72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="C73" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>107</v>
@@ -1563,7 +1574,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="C74" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>107</v>
@@ -1571,7 +1582,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="C75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>107</v>
@@ -1579,7 +1590,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="C76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>107</v>
@@ -1587,7 +1598,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="C77" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>107</v>
@@ -1595,23 +1606,23 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="C78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="C79" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="C80" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="C80" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>107</v>
@@ -1619,7 +1630,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="C81" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>107</v>
@@ -1627,62 +1638,62 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="C83" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
-      <c r="A84" s="1" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1">
+      <c r="C86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
-      <c r="A87" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
-      <c r="C88" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>107</v>
@@ -1690,14 +1701,22 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="C89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="C90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="D91" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1709,1400 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B141" sqref="A141:B141"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="D9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="D19" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="C29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="C33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="D35" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="D37" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="C39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="C42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="C43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="C44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="C45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="D46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="C49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="C50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="C51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="C52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="D55" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="D57" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="C59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="C60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="C63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="C65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="C66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="C67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="C68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="D69" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="C72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="C73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="C76" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="C77" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
-      <c r="C78" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="C79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="C80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="C81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
-      <c r="D82" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
-      <c r="C84" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="C85" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
-      <c r="C86" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
-      <c r="C87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
-      <c r="C88" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
-      <c r="C89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
-      <c r="C90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
-      <c r="D91" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
-      <c r="C93" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
-      <c r="C94" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
-      <c r="C95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
-      <c r="C96" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
-      <c r="C97" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
-      <c r="C99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="D100" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
-      <c r="C102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
-      <c r="C103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
-      <c r="C104" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
-      <c r="C105" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
-      <c r="C106" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
-      <c r="C107" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
-      <c r="C108" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
-      <c r="C109" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
-      <c r="C110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="C111" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="C112" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="C113" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
-      <c r="C114" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="C115" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
-      <c r="D116" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
-      <c r="C118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
-      <c r="C119" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
-      <c r="C120" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
-      <c r="C121" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
-      <c r="C122" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
-      <c r="C123" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
-      <c r="C124" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
-      <c r="D125" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="D127" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="C129" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
-      <c r="D130" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
-      <c r="C132" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
-      <c r="D133" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
-      <c r="A134" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
-      <c r="C135" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
-      <c r="C136" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
-      <c r="C137" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
-      <c r="C138" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="D139" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
-      <c r="C141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="C142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="C143" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="D144" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="C146" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
-      <c r="C147" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
-      <c r="C148" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
-      <c r="C149" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
-      <c r="C150" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
-      <c r="C151" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
-      <c r="C152" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="C153" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="C154" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="D155" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
-      <c r="A156" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="C157" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
-      <c r="D158" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
-      <c r="A159" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="D160" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3" ht="15" customHeight="1">
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="3:3" ht="15" customHeight="1">
-      <c r="C169" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G390"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4256,7 +2885,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>107</v>
@@ -4264,7 +2893,7 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="C137" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>107</v>
@@ -4272,155 +2901,155 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="C138" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1">
+      <c r="C139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1">
+      <c r="C140" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="D139" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
-      <c r="A140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="D141" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1">
+      <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
-      <c r="C141" s="3" t="s">
+      <c r="D142" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1">
+      <c r="C143" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="C142" s="1" t="s">
+      <c r="D143" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1">
+      <c r="C144" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="C143" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="C145" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="D144" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="A145" s="1" t="s">
+      <c r="D145" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="D146" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1">
+      <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="C146" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="C148" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
-      <c r="D147" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
-      <c r="A148" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="D149" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1">
+      <c r="A150" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
-      <c r="C149" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1">
+      <c r="C151" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
-      <c r="C150" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="C152" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
-      <c r="D151" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
-      <c r="A152" s="1" t="s">
+      <c r="D152" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="D153" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="A154" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="C153" s="3" t="s">
+      <c r="D154" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="C155" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="C154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="C155" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>107</v>
@@ -4428,7 +3057,7 @@
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="C156" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>107</v>
@@ -4436,7 +3065,7 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="C157" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>107</v>
@@ -4444,23 +3073,23 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="C158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="C159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="C160" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
-      <c r="C159" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="C160" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>107</v>
@@ -4468,7 +3097,7 @@
     </row>
     <row r="161" spans="3:4" ht="15" customHeight="1">
       <c r="C161" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>107</v>
@@ -4476,7 +3105,7 @@
     </row>
     <row r="162" spans="3:4" ht="15" customHeight="1">
       <c r="C162" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>107</v>
@@ -4484,7 +3113,7 @@
     </row>
     <row r="163" spans="3:4" ht="15" customHeight="1">
       <c r="C163" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>107</v>
@@ -4492,7 +3121,7 @@
     </row>
     <row r="164" spans="3:4" ht="15" customHeight="1">
       <c r="C164" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>107</v>
@@ -4500,7 +3129,7 @@
     </row>
     <row r="165" spans="3:4" ht="15" customHeight="1">
       <c r="C165" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>107</v>
@@ -4508,7 +3137,7 @@
     </row>
     <row r="166" spans="3:4" ht="15" customHeight="1">
       <c r="C166" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>107</v>
@@ -4516,7 +3145,7 @@
     </row>
     <row r="167" spans="3:4" ht="15" customHeight="1">
       <c r="C167" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>107</v>
@@ -4524,7 +3153,7 @@
     </row>
     <row r="168" spans="3:4" ht="15" customHeight="1">
       <c r="C168" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>107</v>
@@ -4532,23 +3161,23 @@
     </row>
     <row r="169" spans="3:4" ht="15" customHeight="1">
       <c r="C169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" ht="15" customHeight="1">
+      <c r="C170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" ht="15" customHeight="1">
+      <c r="C171" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4" ht="15" customHeight="1">
-      <c r="C170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="171" spans="3:4" ht="15" customHeight="1">
-      <c r="C171" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>107</v>
@@ -4556,7 +3185,7 @@
     </row>
     <row r="172" spans="3:4" ht="15" customHeight="1">
       <c r="C172" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>107</v>
@@ -4564,7 +3193,7 @@
     </row>
     <row r="173" spans="3:4" ht="15" customHeight="1">
       <c r="C173" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>107</v>
@@ -4572,7 +3201,7 @@
     </row>
     <row r="174" spans="3:4" ht="15" customHeight="1">
       <c r="C174" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>107</v>
@@ -4580,7 +3209,7 @@
     </row>
     <row r="175" spans="3:4" ht="15" customHeight="1">
       <c r="C175" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>107</v>
@@ -4588,7 +3217,7 @@
     </row>
     <row r="176" spans="3:4" ht="15" customHeight="1">
       <c r="C176" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>107</v>
@@ -4596,7 +3225,7 @@
     </row>
     <row r="177" spans="3:4" ht="15" customHeight="1">
       <c r="C177" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>107</v>
@@ -4604,7 +3233,7 @@
     </row>
     <row r="178" spans="3:4" ht="15" customHeight="1">
       <c r="C178" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>107</v>
@@ -4612,7 +3241,7 @@
     </row>
     <row r="179" spans="3:4" ht="15" customHeight="1">
       <c r="C179" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>107</v>
@@ -4620,7 +3249,7 @@
     </row>
     <row r="180" spans="3:4" ht="15" customHeight="1">
       <c r="C180" s="1" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>107</v>
@@ -4628,7 +3257,7 @@
     </row>
     <row r="181" spans="3:4" ht="15" customHeight="1">
       <c r="C181" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>107</v>
@@ -4636,7 +3265,7 @@
     </row>
     <row r="182" spans="3:4" ht="15" customHeight="1">
       <c r="C182" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>107</v>
@@ -4644,7 +3273,7 @@
     </row>
     <row r="183" spans="3:4" ht="15" customHeight="1">
       <c r="C183" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>107</v>
@@ -4652,7 +3281,7 @@
     </row>
     <row r="184" spans="3:4" ht="15" customHeight="1">
       <c r="C184" s="1" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>107</v>
@@ -4660,7 +3289,7 @@
     </row>
     <row r="185" spans="3:4" ht="15" customHeight="1">
       <c r="C185" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>107</v>
@@ -4668,7 +3297,7 @@
     </row>
     <row r="186" spans="3:4" ht="15" customHeight="1">
       <c r="C186" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>107</v>
@@ -4676,7 +3305,7 @@
     </row>
     <row r="187" spans="3:4" ht="15" customHeight="1">
       <c r="C187" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>107</v>
@@ -4684,7 +3313,7 @@
     </row>
     <row r="188" spans="3:4" ht="15" customHeight="1">
       <c r="C188" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>107</v>
@@ -4692,7 +3321,7 @@
     </row>
     <row r="189" spans="3:4" ht="15" customHeight="1">
       <c r="C189" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>107</v>
@@ -4700,23 +3329,23 @@
     </row>
     <row r="190" spans="3:4" ht="15" customHeight="1">
       <c r="C190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" ht="15" customHeight="1">
+      <c r="C191" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" ht="15" customHeight="1">
+      <c r="C192" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="191" spans="3:4" ht="15" customHeight="1">
-      <c r="C191" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="192" spans="3:4" ht="15" customHeight="1">
-      <c r="C192" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>107</v>
@@ -4724,7 +3353,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="C193" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>107</v>
@@ -4732,7 +3361,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="C194" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>107</v>
@@ -4740,42 +3369,42 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="C195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1">
+      <c r="C196" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1">
+      <c r="C197" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
-      <c r="D196" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
-      <c r="A197" s="1" t="s">
+      <c r="D197" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1">
+      <c r="D198" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" customHeight="1">
+      <c r="A199" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
-      <c r="C198" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
-      <c r="C199" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>107</v>
@@ -4783,42 +3412,42 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="C200" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1">
+      <c r="C201" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1">
+      <c r="C202" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
-      <c r="D201" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
-      <c r="A202" s="1" t="s">
+      <c r="D202" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1">
+      <c r="D203" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1">
+      <c r="A204" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
-      <c r="C203" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
-      <c r="C204" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>107</v>
@@ -4826,77 +3455,77 @@
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="C205" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1">
+      <c r="C206" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1">
+      <c r="C207" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
-      <c r="D206" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
-      <c r="A207" s="1" t="s">
+      <c r="D207" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1">
+      <c r="D208" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1">
+      <c r="A209" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
-      <c r="C208" s="1" t="s">
+      <c r="D209" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1">
+      <c r="C210" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
-      <c r="C209" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1">
+      <c r="C211" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
-      <c r="D210" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
-      <c r="A211" s="1" t="s">
+      <c r="D211" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1">
+      <c r="D212" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1">
+      <c r="A213" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
-      <c r="C212" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
-      <c r="C213" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>107</v>
@@ -4920,7 +3549,7 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="C216" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>107</v>
@@ -4928,7 +3557,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>107</v>
@@ -4936,7 +3565,7 @@
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="C218" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>107</v>
@@ -4944,7 +3573,7 @@
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="C219" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>107</v>
@@ -4952,7 +3581,7 @@
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="C220" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>107</v>
@@ -4960,7 +3589,7 @@
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="C221" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>107</v>
@@ -4968,42 +3597,42 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="C222" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1">
+      <c r="C223" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1">
+      <c r="C224" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
-      <c r="D223" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
-      <c r="A224" s="1" t="s">
+      <c r="D224" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" customHeight="1">
+      <c r="D225" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1">
+      <c r="A226" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
-      <c r="C225" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
-      <c r="C226" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>107</v>
@@ -5011,7 +3640,7 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="C227" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>107</v>
@@ -5019,7 +3648,7 @@
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="C228" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>107</v>
@@ -5027,7 +3656,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="C229" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>107</v>
@@ -5035,15 +3664,15 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="C230" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
-      <c r="C231" s="1" t="s">
-        <v>83</v>
+      <c r="C231" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>107</v>
@@ -5051,15 +3680,15 @@
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="C232" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
-      <c r="C233" s="3" t="s">
-        <v>47</v>
+      <c r="C233" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>107</v>
@@ -5067,132 +3696,132 @@
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="C234" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" customHeight="1">
+      <c r="C235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" customHeight="1">
+      <c r="C236" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
-      <c r="C235" s="3"/>
-      <c r="D235" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
-      <c r="A236" s="1" t="s">
+      <c r="D236" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" customHeight="1">
+      <c r="C237" s="3"/>
+      <c r="D237" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1">
+      <c r="A238" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
-      <c r="C237" s="1" t="s">
+      <c r="D238" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1">
+      <c r="C239" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
-      <c r="D238" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
-      <c r="A239" s="1" t="s">
+      <c r="D239" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1">
+      <c r="D240" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1">
+      <c r="A241" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
-      <c r="C240" s="1" t="s">
+      <c r="D241" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1">
+      <c r="C242" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
-      <c r="D241" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
-      <c r="A242" s="1" t="s">
+      <c r="D242" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1">
+      <c r="D243" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1">
+      <c r="A244" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
-      <c r="C243" s="1" t="s">
+      <c r="D244" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1">
+      <c r="C245" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
-      <c r="C244" s="1" t="s">
+      <c r="D245" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1">
+      <c r="C246" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
-      <c r="D245" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
-      <c r="A246" s="1" t="s">
+      <c r="D246" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1">
+      <c r="D247" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1">
+      <c r="A248" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
-      <c r="C247" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
-      <c r="C248" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>107</v>
@@ -5216,7 +3845,7 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="C251" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>107</v>
@@ -5224,7 +3853,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="C252" s="1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>107</v>
@@ -5232,7 +3861,7 @@
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="C253" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>107</v>
@@ -5240,7 +3869,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="C254" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>107</v>
@@ -5248,7 +3877,7 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="C255" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>107</v>
@@ -5256,7 +3885,7 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="C256" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>107</v>
@@ -5264,42 +3893,42 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="C257" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1">
+      <c r="C258" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1">
+      <c r="C259" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
-      <c r="D258" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
-      <c r="A259" s="1" t="s">
+      <c r="D259" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1">
+      <c r="D260" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1">
+      <c r="A261" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
-      <c r="C260" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
-      <c r="C261" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>107</v>
@@ -5307,7 +3936,7 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="C262" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>107</v>
@@ -5315,7 +3944,7 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="C263" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>107</v>
@@ -5323,7 +3952,7 @@
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="C264" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>107</v>
@@ -5331,15 +3960,15 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="C265" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
-      <c r="C266" s="1" t="s">
-        <v>83</v>
+      <c r="C266" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>107</v>
@@ -5347,15 +3976,15 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="C267" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
-      <c r="C268" s="3" t="s">
-        <v>47</v>
+      <c r="C268" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>107</v>
@@ -5363,97 +3992,97 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="C269" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1">
+      <c r="C270" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1">
+      <c r="C271" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
-      <c r="C270" s="3"/>
-      <c r="D270" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
-      <c r="A271" s="1" t="s">
+      <c r="D271" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1">
+      <c r="C272" s="3"/>
+      <c r="D272" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1">
+      <c r="A273" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
-      <c r="C272" s="1" t="s">
+      <c r="D273" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1">
+      <c r="C274" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
-      <c r="D273" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
-      <c r="A274" s="1" t="s">
+      <c r="D274" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1">
+      <c r="D275" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1">
+      <c r="A276" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
-      <c r="C275" s="1" t="s">
+      <c r="D276" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1">
+      <c r="C277" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
-      <c r="D276" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
-      <c r="A277" s="1" t="s">
+      <c r="D277" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1">
+      <c r="D278" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1">
+      <c r="A279" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
-      <c r="C278" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
-      <c r="C279" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>107</v>
@@ -5461,148 +4090,148 @@
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
       <c r="C280" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1">
+      <c r="C281" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1">
+      <c r="C282" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
-      <c r="C281" s="1" t="s">
+      <c r="D282" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1">
+      <c r="C283" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
-      <c r="D282" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
-      <c r="A283" s="1" t="s">
+      <c r="D283" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1">
+      <c r="D284" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1">
+      <c r="A285" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
-      <c r="C284" s="1" t="s">
+      <c r="D285" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1">
+      <c r="C286" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
-      <c r="D285" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
-      <c r="A286" s="1" t="s">
+      <c r="D286" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1">
+      <c r="D287" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1">
+      <c r="A288" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
-      <c r="C287" s="1" t="s">
+      <c r="D288" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1">
+      <c r="C289" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
-      <c r="C288" s="1" t="s">
+      <c r="D289" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1">
+      <c r="C290" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
-      <c r="D289" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
-      <c r="A290" s="1" t="s">
+      <c r="D290" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1">
+      <c r="D291" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1">
+      <c r="A292" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C292" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
-      <c r="C291" s="3" t="s">
+      <c r="D292" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1">
+      <c r="C293" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
-      <c r="C292" s="3" t="s">
+      <c r="D293" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1">
+      <c r="C294" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
-      <c r="C293" s="3"/>
-      <c r="D293" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
-      <c r="A294" s="1" t="s">
+      <c r="D294" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1">
+      <c r="C295" s="3"/>
+      <c r="D295" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1">
+      <c r="A296" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B296" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
-      <c r="C295" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
-      <c r="C296" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>107</v>
@@ -5626,7 +4255,7 @@
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="C299" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>107</v>
@@ -5634,7 +4263,7 @@
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="C300" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>107</v>
@@ -5642,7 +4271,7 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="C301" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>107</v>
@@ -5650,7 +4279,7 @@
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="C302" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>107</v>
@@ -5658,42 +4287,42 @@
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="C303" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1">
+      <c r="C304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1">
+      <c r="C305" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
-      <c r="D304" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
-      <c r="A305" s="1" t="s">
+      <c r="D305" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1">
+      <c r="D306" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1">
+      <c r="A307" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
-      <c r="C306" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
-      <c r="C307" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>107</v>
@@ -5701,7 +4330,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1">
       <c r="C308" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>107</v>
@@ -5709,7 +4338,7 @@
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1">
       <c r="C309" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>107</v>
@@ -5717,7 +4346,7 @@
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1">
       <c r="C310" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>107</v>
@@ -5725,15 +4354,15 @@
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1">
       <c r="C311" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1">
-      <c r="C312" s="1" t="s">
-        <v>83</v>
+      <c r="C312" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>107</v>
@@ -5741,15 +4370,15 @@
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1">
       <c r="C313" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1">
-      <c r="C314" s="3" t="s">
-        <v>47</v>
+      <c r="C314" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>107</v>
@@ -5757,70 +4386,70 @@
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1">
       <c r="C315" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1">
+      <c r="C316" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1">
+      <c r="C317" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
-      <c r="C316" s="3"/>
-      <c r="D316" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
-      <c r="A317" s="1" t="s">
+      <c r="D317" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1">
+      <c r="C318" s="3"/>
+      <c r="D318" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1">
+      <c r="A319" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1">
-      <c r="C318" s="1" t="s">
+      <c r="D319" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1">
+      <c r="C320" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1">
-      <c r="D319" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1">
-      <c r="A320" s="1" t="s">
+      <c r="D320" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15" customHeight="1">
+      <c r="D321" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15" customHeight="1">
+      <c r="A322" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" ht="15" customHeight="1">
-      <c r="C321" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" ht="15" customHeight="1">
-      <c r="C322" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>107</v>
@@ -5828,26 +4457,23 @@
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1">
       <c r="C323" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15" customHeight="1">
+      <c r="C324" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15" customHeight="1">
+      <c r="C325" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="15" customHeight="1">
-      <c r="D324" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" ht="15" customHeight="1">
-      <c r="A325" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>107</v>
@@ -5860,98 +4486,101 @@
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1">
       <c r="A327" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15" customHeight="1">
+      <c r="D328" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15" customHeight="1">
+      <c r="A329" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B329" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F327" s="3"/>
-    </row>
-    <row r="328" spans="1:6" ht="15" customHeight="1">
-      <c r="C328" s="3" t="s">
+      <c r="D329" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" ht="15" customHeight="1">
+      <c r="C330" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F328" s="3"/>
-    </row>
-    <row r="329" spans="1:6" ht="15" customHeight="1">
-      <c r="C329" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="15" customHeight="1">
-      <c r="C330" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D330" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="F330" s="3"/>
     </row>
     <row r="331" spans="1:6" ht="15" customHeight="1">
       <c r="C331" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
     </row>
     <row r="332" spans="1:6" ht="15" customHeight="1">
       <c r="C332" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:6" ht="15" customHeight="1">
       <c r="C333" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
     </row>
     <row r="334" spans="1:6" ht="15" customHeight="1">
       <c r="C334" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:6" ht="15" customHeight="1">
       <c r="C335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15" customHeight="1">
+      <c r="C336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" ht="15" customHeight="1">
+      <c r="C337" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="15" customHeight="1">
-      <c r="C336" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="337" spans="3:4" ht="15" customHeight="1">
-      <c r="C337" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>107</v>
@@ -5959,7 +4588,7 @@
     </row>
     <row r="338" spans="3:4" ht="15" customHeight="1">
       <c r="C338" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>107</v>
@@ -5967,7 +4596,7 @@
     </row>
     <row r="339" spans="3:4" ht="15" customHeight="1">
       <c r="C339" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>107</v>
@@ -5975,7 +4604,7 @@
     </row>
     <row r="340" spans="3:4" ht="15" customHeight="1">
       <c r="C340" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>107</v>
@@ -5983,7 +4612,7 @@
     </row>
     <row r="341" spans="3:4" ht="15" customHeight="1">
       <c r="C341" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>107</v>
@@ -5991,7 +4620,7 @@
     </row>
     <row r="342" spans="3:4" ht="15" customHeight="1">
       <c r="C342" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>107</v>
@@ -5999,7 +4628,7 @@
     </row>
     <row r="343" spans="3:4" ht="15" customHeight="1">
       <c r="C343" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>107</v>
@@ -6007,7 +4636,7 @@
     </row>
     <row r="344" spans="3:4" ht="15" customHeight="1">
       <c r="C344" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>107</v>
@@ -6015,7 +4644,7 @@
     </row>
     <row r="345" spans="3:4" ht="15" customHeight="1">
       <c r="C345" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>107</v>
@@ -6023,23 +4652,23 @@
     </row>
     <row r="346" spans="3:4" ht="15" customHeight="1">
       <c r="C346" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" ht="15" customHeight="1">
+      <c r="C347" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" ht="15" customHeight="1">
+      <c r="C348" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="347" spans="3:4" ht="15" customHeight="1">
-      <c r="C347" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="348" spans="3:4" ht="15" customHeight="1">
-      <c r="C348" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>107</v>
@@ -6047,7 +4676,7 @@
     </row>
     <row r="349" spans="3:4" ht="15" customHeight="1">
       <c r="C349" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>107</v>
@@ -6055,7 +4684,7 @@
     </row>
     <row r="350" spans="3:4" ht="15" customHeight="1">
       <c r="C350" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>107</v>
@@ -6063,7 +4692,7 @@
     </row>
     <row r="351" spans="3:4" ht="15" customHeight="1">
       <c r="C351" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>107</v>
@@ -6071,7 +4700,7 @@
     </row>
     <row r="352" spans="3:4" ht="15" customHeight="1">
       <c r="C352" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>107</v>
@@ -6079,16 +4708,15 @@
     </row>
     <row r="353" spans="3:7" ht="15" customHeight="1">
       <c r="C353" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G353" s="3"/>
     </row>
     <row r="354" spans="3:7" ht="15" customHeight="1">
       <c r="C354" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>107</v>
@@ -6096,15 +4724,16 @@
     </row>
     <row r="355" spans="3:7" ht="15" customHeight="1">
       <c r="C355" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="G355" s="3"/>
     </row>
     <row r="356" spans="3:7" ht="15" customHeight="1">
       <c r="C356" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>107</v>
@@ -6112,7 +4741,7 @@
     </row>
     <row r="357" spans="3:7" ht="15" customHeight="1">
       <c r="C357" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>107</v>
@@ -6120,7 +4749,7 @@
     </row>
     <row r="358" spans="3:7" ht="15" customHeight="1">
       <c r="C358" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>107</v>
@@ -6128,7 +4757,7 @@
     </row>
     <row r="359" spans="3:7" ht="15" customHeight="1">
       <c r="C359" s="1" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>107</v>
@@ -6136,7 +4765,7 @@
     </row>
     <row r="360" spans="3:7" ht="15" customHeight="1">
       <c r="C360" s="1" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>107</v>
@@ -6144,7 +4773,7 @@
     </row>
     <row r="361" spans="3:7" ht="15" customHeight="1">
       <c r="C361" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>107</v>
@@ -6152,7 +4781,7 @@
     </row>
     <row r="362" spans="3:7" ht="15" customHeight="1">
       <c r="C362" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>107</v>
@@ -6160,7 +4789,7 @@
     </row>
     <row r="363" spans="3:7" ht="15" customHeight="1">
       <c r="C363" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>107</v>
@@ -6168,7 +4797,7 @@
     </row>
     <row r="364" spans="3:7" ht="15" customHeight="1">
       <c r="C364" s="1" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>107</v>
@@ -6176,16 +4805,15 @@
     </row>
     <row r="365" spans="3:7" ht="15" customHeight="1">
       <c r="C365" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E365" s="3"/>
     </row>
     <row r="366" spans="3:7" ht="15" customHeight="1">
       <c r="C366" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>107</v>
@@ -6193,15 +4821,16 @@
     </row>
     <row r="367" spans="3:7" ht="15" customHeight="1">
       <c r="C367" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E367" s="3"/>
     </row>
     <row r="368" spans="3:7" ht="15" customHeight="1">
       <c r="C368" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>107</v>
@@ -6209,7 +4838,7 @@
     </row>
     <row r="369" spans="3:4" ht="15" customHeight="1">
       <c r="C369" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>107</v>
@@ -6217,7 +4846,7 @@
     </row>
     <row r="370" spans="3:4" ht="15" customHeight="1">
       <c r="C370" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>107</v>
@@ -6225,7 +4854,7 @@
     </row>
     <row r="371" spans="3:4" ht="15" customHeight="1">
       <c r="C371" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>107</v>
@@ -6233,23 +4862,23 @@
     </row>
     <row r="372" spans="3:4" ht="15" customHeight="1">
       <c r="C372" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" ht="15" customHeight="1">
+      <c r="C373" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" ht="15" customHeight="1">
+      <c r="C374" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="373" spans="3:4" ht="15" customHeight="1">
-      <c r="C373" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="374" spans="3:4" ht="15" customHeight="1">
-      <c r="C374" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>107</v>
@@ -6257,7 +4886,7 @@
     </row>
     <row r="375" spans="3:4" ht="15" customHeight="1">
       <c r="C375" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>107</v>
@@ -6265,7 +4894,7 @@
     </row>
     <row r="376" spans="3:4" ht="15" customHeight="1">
       <c r="C376" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>107</v>
@@ -6273,23 +4902,23 @@
     </row>
     <row r="377" spans="3:4" ht="15" customHeight="1">
       <c r="C377" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" ht="15" customHeight="1">
+      <c r="C378" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" ht="15" customHeight="1">
+      <c r="C379" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="378" spans="3:4" ht="15" customHeight="1">
-      <c r="C378" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="379" spans="3:4" ht="15" customHeight="1">
-      <c r="C379" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>107</v>
@@ -6297,39 +4926,39 @@
     </row>
     <row r="380" spans="3:4" ht="15" customHeight="1">
       <c r="C380" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" ht="15" customHeight="1">
+      <c r="C381" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" ht="15" customHeight="1">
+      <c r="C382" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D380" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="381" spans="3:4" ht="15" customHeight="1">
-      <c r="C381" s="3" t="s">
+      <c r="D382" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" ht="15" customHeight="1">
+      <c r="C383" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="382" spans="3:4" ht="15" customHeight="1">
-      <c r="C382" s="3" t="s">
+      <c r="D383" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" ht="15" customHeight="1">
+      <c r="C384" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="383" spans="3:4" ht="15" customHeight="1">
-      <c r="C383" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="384" spans="3:4" ht="15" customHeight="1">
-      <c r="C384" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>107</v>
@@ -6337,7 +4966,7 @@
     </row>
     <row r="385" spans="3:4" ht="15" customHeight="1">
       <c r="C385" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>107</v>
@@ -6345,7 +4974,7 @@
     </row>
     <row r="386" spans="3:4" ht="15" customHeight="1">
       <c r="C386" s="1" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>107</v>
@@ -6353,7 +4982,7 @@
     </row>
     <row r="387" spans="3:4" ht="15" customHeight="1">
       <c r="C387" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>107</v>
@@ -6361,7 +4990,7 @@
     </row>
     <row r="388" spans="3:4" ht="15" customHeight="1">
       <c r="C388" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>107</v>
@@ -6369,16 +4998,1422 @@
     </row>
     <row r="389" spans="3:4" ht="15" customHeight="1">
       <c r="C389" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" ht="15" customHeight="1">
+      <c r="C390" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4" ht="15" customHeight="1">
+      <c r="C391" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D389" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="390" spans="3:4" ht="15" customHeight="1">
-      <c r="D390" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="D391" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" ht="15" customHeight="1">
+      <c r="D392" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G169"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1">
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="D37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1">
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1">
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1">
+      <c r="C49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="C52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="C54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1">
+      <c r="D55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1">
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
+      <c r="C59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1">
+      <c r="C60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1">
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1">
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1">
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1">
+      <c r="C64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1">
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1">
+      <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1">
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="D69" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="C72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1">
+      <c r="C77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="C79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1">
+      <c r="C81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="C84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="C85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1">
+      <c r="C86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1">
+      <c r="C87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="C88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1">
+      <c r="C89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="C90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="D91" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1">
+      <c r="C93" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1">
+      <c r="C94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1">
+      <c r="C95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1">
+      <c r="C96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1">
+      <c r="C97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="C98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="C99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="D100" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="C102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="C103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="C104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="C105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="C106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="C107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="C108" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="C109" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="C110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="C111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="C112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="C113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="C114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="C115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1">
+      <c r="D116" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1">
+      <c r="C118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1">
+      <c r="C119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1">
+      <c r="C120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1">
+      <c r="C121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1">
+      <c r="C122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1">
+      <c r="C123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1">
+      <c r="C124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1">
+      <c r="D125" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1">
+      <c r="D127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1">
+      <c r="C129" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="D130" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1">
+      <c r="C132" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1">
+      <c r="D133" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1">
+      <c r="C135" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1">
+      <c r="C136" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1">
+      <c r="C137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1">
+      <c r="C138" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1">
+      <c r="D139" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="C141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1">
+      <c r="C142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1">
+      <c r="C143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1">
+      <c r="D144" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="C146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1">
+      <c r="C147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="C148" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="C149" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1">
+      <c r="C150" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1">
+      <c r="C151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="C152" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="C153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="C154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="D155" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="C157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="D158" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="D160" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" ht="15" customHeight="1">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" ht="15" customHeight="1">
+      <c r="C169" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
